--- a/data/uni.xlsx
+++ b/data/uni.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="1170" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="ЕГЭ" sheetId="1" r:id="rId1"/>
+    <sheet name="ВК Имена" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="542">
   <si>
     <t>Адыгейский гос. ун-т., г. Майкоп</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Балтийская гос. академия рыбопромыслового флота, г. Калининград</t>
   </si>
   <si>
-    <t>Балтийский гос. техн. ун-т. ВОЕНМЕХ им. Д.Ф. Устинова, г. Санкт-Петербург </t>
-  </si>
-  <si>
     <t>Балтийский федеральный ун-т. им. Иммануила Канта, г.Калининград</t>
   </si>
   <si>
@@ -708,9 +705,6 @@
     <t>Национальный исследовательский ун-т. "Высшая школа экономики", филиал, г. Пермь</t>
   </si>
   <si>
-    <t>Национальный исследовательский ун-т. "Высшая школа экономики", филиал, г. Санкт-Петербург</t>
-  </si>
-  <si>
     <t>Национальный исследовательский ун-т. "Моск. энергетический ин-т." (НИУ МЭИ)</t>
   </si>
   <si>
@@ -924,9 +918,6 @@
     <t>Российский гос. аграрный ун-т.- МСХА им. К.А. Тимирязева (РГАУ-МСХА), г.Москва</t>
   </si>
   <si>
-    <t>Российский гос. геологоразведочный ун-т. им. Серго Орджоникидзе, г. Москва</t>
-  </si>
-  <si>
     <t>Российский гос. гидрометеорологический ун-т., г. Санкт-Петербург</t>
   </si>
   <si>
@@ -1050,9 +1041,6 @@
     <t>Санкт-Петербургский гос. технол. ун-т. растительных полимеров</t>
   </si>
   <si>
-    <t>Санкт-Петербургский гос. ун-т. аэрокосмического приборостроения</t>
-  </si>
-  <si>
     <t>Санкт-Петербургский гос. ун-т. гражданской авиации</t>
   </si>
   <si>
@@ -1435,6 +1423,225 @@
   </si>
   <si>
     <t>Rate</t>
+  </si>
+  <si>
+    <t>БГТУ «Военмех»</t>
+  </si>
+  <si>
+    <t>ПГУПС</t>
+  </si>
+  <si>
+    <t>СПб УГПС МЧС РФ</t>
+  </si>
+  <si>
+    <t>СПбВШТЭ (бывш. СПбГТУРП)</t>
+  </si>
+  <si>
+    <t>СПбПУ (Политех)</t>
+  </si>
+  <si>
+    <t>ADAU (АГАУ)</t>
+  </si>
+  <si>
+    <t>РГГРУ (МГРИ) им. Орджоникидзе</t>
+  </si>
+  <si>
+    <t>Бургаски свободен университет (БСУ)</t>
+  </si>
+  <si>
+    <t>СПбГУАП</t>
+  </si>
+  <si>
+    <t>Kendall college</t>
+  </si>
+  <si>
+    <t>СПбГИКиТ (бывш. СПбГУКиТ)</t>
+  </si>
+  <si>
+    <t>СПбИИР</t>
+  </si>
+  <si>
+    <t>СПбГМТУ (бывш. ЛКИ)</t>
+  </si>
+  <si>
+    <t>СПбАУ НОЦНТ РАН (бывш. АФТУ РАН)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Союз журналистов </t>
+  </si>
+  <si>
+    <t>Управления Планетарными Системами Вселенной</t>
+  </si>
+  <si>
+    <t>СПбГАИЖСА (Академия художеств) им. Репина</t>
+  </si>
+  <si>
+    <t>ПСПбГМУ им. акад. Павлова</t>
+  </si>
+  <si>
+    <t>АБП (СЗФ)</t>
+  </si>
+  <si>
+    <t>АРБ им. Вагановой</t>
+  </si>
+  <si>
+    <t>РГГМУ (до 2015)</t>
+  </si>
+  <si>
+    <t>СПбГПУ Политех</t>
+  </si>
+  <si>
+    <t>Гармония</t>
+  </si>
+  <si>
+    <t>СПбГПМУ (бывш. СПбГПМА, ЛПМИ)</t>
+  </si>
+  <si>
+    <t>МГИМО (У) МИД России</t>
+  </si>
+  <si>
+    <t>СПбГЭУ (ранее ФИНЭК, ИНЖЭКОН, СПбГУСЭ)</t>
+  </si>
+  <si>
+    <t>СЗ филиал РГУП (бывш. СЗ филиал РАП)</t>
+  </si>
+  <si>
+    <t>ГИЭФПТ (бывш. ЛОИЭФ)</t>
+  </si>
+  <si>
+    <t>СПбГЭТУ (ЛЭТИ)</t>
+  </si>
+  <si>
+    <t>Горный университет (бывш. СПГГУ)</t>
+  </si>
+  <si>
+    <t>НГУ им. Лесгафта (бывш. СПбГУФК)</t>
+  </si>
+  <si>
+    <t>СПбГК им. Римского-Корсакова</t>
+  </si>
+  <si>
+    <t>СПбГИК (бывш. СПбГУКИ)</t>
+  </si>
+  <si>
+    <t>СПбГУТД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЗГМУ им. Мечникова (бывш. СПбГМА, СПбМАПО) </t>
+  </si>
+  <si>
+    <t>МГУ</t>
+  </si>
+  <si>
+    <t>СПбГТИ (ТУ)</t>
+  </si>
+  <si>
+    <t>Art Institute of California - San Francisco</t>
+  </si>
+  <si>
+    <t>СПбИЭУ</t>
+  </si>
+  <si>
+    <t>СПбГАУ</t>
+  </si>
+  <si>
+    <t>НИУ ВШЭ (СПб)</t>
+  </si>
+  <si>
+    <t>САУ (бывш. СПбУУЭ, СПбАУЭ)</t>
+  </si>
+  <si>
+    <t>СПХФА</t>
+  </si>
+  <si>
+    <t>ПГУПС императора Александра I</t>
+  </si>
+  <si>
+    <t>МБИ</t>
+  </si>
+  <si>
+    <t>Vlerick Leuven Gent Management School (St. Petersburg Campus)</t>
+  </si>
+  <si>
+    <t>ГУМРФ (бывш. СПбГУВК) им. адм. С.О. Макарова</t>
+  </si>
+  <si>
+    <t>СПбГМУ им. акад. Павлова</t>
+  </si>
+  <si>
+    <t>Baruch College</t>
+  </si>
+  <si>
+    <t>ЛГУ им. Пушкина</t>
+  </si>
+  <si>
+    <t>СПбГУП</t>
+  </si>
+  <si>
+    <t>ЦКТИ</t>
+  </si>
+  <si>
+    <t>РТА (филиал в СПб)</t>
+  </si>
+  <si>
+    <t>СПбГАВМ (бывш. ЛВИ)</t>
+  </si>
+  <si>
+    <t>СЗИУ РАНХиГС (бывш. СЗАГС)</t>
+  </si>
+  <si>
+    <t>СПбГУПТД (бывш. СПГУТД)</t>
+  </si>
+  <si>
+    <t>БАТиП (БМИТ)</t>
+  </si>
+  <si>
+    <t>СПбГИПСР</t>
+  </si>
+  <si>
+    <t>БГТУ (Военмех)</t>
+  </si>
+  <si>
+    <t>РГПУ им. Герцена</t>
+  </si>
+  <si>
+    <t>СПбГУГА</t>
+  </si>
+  <si>
+    <t>НИУ СПбГПУ (Политех)</t>
+  </si>
+  <si>
+    <t>СПбГУКиТ</t>
+  </si>
+  <si>
+    <t>СПбУ МВД России</t>
+  </si>
+  <si>
+    <t>СПбГТУРП</t>
+  </si>
+  <si>
+    <t>СПб ИДПО СЗ</t>
+  </si>
+  <si>
+    <t>ТЭУ СПбПУ (бывш. СПбГТЭУ, СПбТЭИ)</t>
+  </si>
+  <si>
+    <t>Название ВКонтакте</t>
+  </si>
+  <si>
+    <t>Заменено</t>
+  </si>
+  <si>
+    <t>не в России</t>
+  </si>
+  <si>
+    <t>не нашелся</t>
+  </si>
+  <si>
+    <t>исправлен</t>
+  </si>
+  <si>
+    <t>не просмотрено</t>
   </si>
 </sst>
 </file>
@@ -1529,7 +1736,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1537,14 +1744,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1582,9 +1792,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1619,7 +1829,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1654,7 +1864,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1830,18 +2040,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K472"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2180,9 +2394,9 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>469</v>
       </c>
       <c r="B23" s="3">
         <v>62.7</v>
@@ -2198,7 +2412,7 @@
     </row>
     <row r="24" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3">
         <v>69.8</v>
@@ -2214,7 +2428,7 @@
     </row>
     <row r="25" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3">
         <v>61.7</v>
@@ -2230,7 +2444,7 @@
     </row>
     <row r="26" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="5">
         <v>79.2</v>
@@ -2246,7 +2460,7 @@
     </row>
     <row r="27" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="3">
         <v>64.7</v>
@@ -2262,7 +2476,7 @@
     </row>
     <row r="28" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="3">
         <v>67.599999999999994</v>
@@ -2278,7 +2492,7 @@
     </row>
     <row r="29" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="3">
         <v>61.6</v>
@@ -2294,7 +2508,7 @@
     </row>
     <row r="30" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="3">
         <v>66.900000000000006</v>
@@ -2310,7 +2524,7 @@
     </row>
     <row r="31" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="5">
         <v>71.2</v>
@@ -2326,7 +2540,7 @@
     </row>
     <row r="32" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="5">
         <v>72.599999999999994</v>
@@ -2342,7 +2556,7 @@
     </row>
     <row r="33" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="4">
         <v>54.3</v>
@@ -2358,7 +2572,7 @@
     </row>
     <row r="34" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="3">
         <v>58.1</v>
@@ -2374,7 +2588,7 @@
     </row>
     <row r="35" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="4">
         <v>54.9</v>
@@ -2390,7 +2604,7 @@
     </row>
     <row r="36" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="3">
         <v>61.6</v>
@@ -2406,7 +2620,7 @@
     </row>
     <row r="37" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="3">
         <v>59</v>
@@ -2422,7 +2636,7 @@
     </row>
     <row r="38" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="3">
         <v>64.900000000000006</v>
@@ -2438,7 +2652,7 @@
     </row>
     <row r="39" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="3">
         <v>68.2</v>
@@ -2454,7 +2668,7 @@
     </row>
     <row r="40" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="4">
         <v>52.5</v>
@@ -2470,7 +2684,7 @@
     </row>
     <row r="41" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="3">
         <v>62.8</v>
@@ -2486,7 +2700,7 @@
     </row>
     <row r="42" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="4">
         <v>51.7</v>
@@ -2502,7 +2716,7 @@
     </row>
     <row r="43" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="3">
         <v>66.599999999999994</v>
@@ -2518,7 +2732,7 @@
     </row>
     <row r="44" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="3">
         <v>64.099999999999994</v>
@@ -2534,7 +2748,7 @@
     </row>
     <row r="45" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="3">
         <v>57.3</v>
@@ -2550,7 +2764,7 @@
     </row>
     <row r="46" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="3">
         <v>58.8</v>
@@ -2566,7 +2780,7 @@
     </row>
     <row r="47" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="5">
         <v>80.5</v>
@@ -2582,7 +2796,7 @@
     </row>
     <row r="48" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="3">
         <v>66.2</v>
@@ -2598,7 +2812,7 @@
     </row>
     <row r="49" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="3">
         <v>60.1</v>
@@ -2614,7 +2828,7 @@
     </row>
     <row r="50" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="3">
         <v>68.5</v>
@@ -2630,7 +2844,7 @@
     </row>
     <row r="51" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="5">
         <v>72.5</v>
@@ -2646,7 +2860,7 @@
     </row>
     <row r="52" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="4">
         <v>55.9</v>
@@ -2662,7 +2876,7 @@
     </row>
     <row r="53" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="3">
         <v>63.1</v>
@@ -2678,7 +2892,7 @@
     </row>
     <row r="54" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="4">
         <v>53.2</v>
@@ -2694,7 +2908,7 @@
     </row>
     <row r="55" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="3">
         <v>65.2</v>
@@ -2710,7 +2924,7 @@
     </row>
     <row r="56" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="3">
         <v>59.3</v>
@@ -2726,7 +2940,7 @@
     </row>
     <row r="57" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="4">
         <v>55.4</v>
@@ -2742,7 +2956,7 @@
     </row>
     <row r="58" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="5">
         <v>85.1</v>
@@ -2758,7 +2972,7 @@
     </row>
     <row r="59" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="3">
         <v>57</v>
@@ -2774,7 +2988,7 @@
     </row>
     <row r="60" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="3">
         <v>64.400000000000006</v>
@@ -2790,7 +3004,7 @@
     </row>
     <row r="61" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="3">
         <v>67.099999999999994</v>
@@ -2806,7 +3020,7 @@
     </row>
     <row r="62" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="3">
         <v>62.9</v>
@@ -2822,7 +3036,7 @@
     </row>
     <row r="63" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="5">
         <v>73.099999999999994</v>
@@ -2838,7 +3052,7 @@
     </row>
     <row r="64" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="3">
         <v>63.9</v>
@@ -2854,7 +3068,7 @@
     </row>
     <row r="65" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="3">
         <v>56.3</v>
@@ -2870,7 +3084,7 @@
     </row>
     <row r="66" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="4">
         <v>52.4</v>
@@ -2886,7 +3100,7 @@
     </row>
     <row r="67" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="5">
         <v>90.5</v>
@@ -2902,7 +3116,7 @@
     </row>
     <row r="68" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="4">
         <v>54</v>
@@ -2918,7 +3132,7 @@
     </row>
     <row r="69" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="3">
         <v>64.400000000000006</v>
@@ -2934,7 +3148,7 @@
     </row>
     <row r="70" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" s="3">
         <v>65.5</v>
@@ -2950,7 +3164,7 @@
     </row>
     <row r="71" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="3">
         <v>58.7</v>
@@ -2966,7 +3180,7 @@
     </row>
     <row r="72" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="4">
         <v>55.3</v>
@@ -2982,7 +3196,7 @@
     </row>
     <row r="73" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="3">
         <v>57.3</v>
@@ -2998,7 +3212,7 @@
     </row>
     <row r="74" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="4">
         <v>54.8</v>
@@ -3014,7 +3228,7 @@
     </row>
     <row r="75" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" s="5">
         <v>74.3</v>
@@ -3030,7 +3244,7 @@
     </row>
     <row r="76" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" s="3">
         <v>67.099999999999994</v>
@@ -3046,7 +3260,7 @@
     </row>
     <row r="77" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="5">
         <v>87.6</v>
@@ -3062,7 +3276,7 @@
     </row>
     <row r="78" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="3">
         <v>64</v>
@@ -3076,9 +3290,9 @@
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="5">
         <v>74.8</v>
@@ -3092,9 +3306,9 @@
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" s="3">
         <v>60.4</v>
@@ -3108,9 +3322,9 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" s="3">
         <v>62.1</v>
@@ -3126,7 +3340,7 @@
     </row>
     <row r="82" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="3">
         <v>65.5</v>
@@ -3142,7 +3356,7 @@
     </row>
     <row r="83" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" s="3">
         <v>59.9</v>
@@ -3158,7 +3372,7 @@
     </row>
     <row r="84" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="3">
         <v>66.2</v>
@@ -3174,7 +3388,7 @@
     </row>
     <row r="85" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="5">
         <v>74.400000000000006</v>
@@ -3190,7 +3404,7 @@
     </row>
     <row r="86" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="4">
         <v>55.1</v>
@@ -3206,7 +3420,7 @@
     </row>
     <row r="87" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="5">
         <v>83</v>
@@ -3222,7 +3436,7 @@
     </row>
     <row r="88" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="3">
         <v>57.2</v>
@@ -3238,7 +3452,7 @@
     </row>
     <row r="89" spans="1:11" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" s="3">
         <v>58.9</v>
@@ -3254,7 +3468,7 @@
     </row>
     <row r="90" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" s="3">
         <v>60.6</v>
@@ -3270,7 +3484,7 @@
     </row>
     <row r="91" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="3">
         <v>65</v>
@@ -3286,7 +3500,7 @@
     </row>
     <row r="92" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="3">
         <v>67.400000000000006</v>
@@ -3302,7 +3516,7 @@
     </row>
     <row r="93" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" s="4">
         <v>45.3</v>
@@ -3318,7 +3532,7 @@
     </row>
     <row r="94" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" s="3">
         <v>61.9</v>
@@ -3334,7 +3548,7 @@
     </row>
     <row r="95" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="5">
         <v>75.2</v>
@@ -3350,7 +3564,7 @@
     </row>
     <row r="96" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" s="4">
         <v>50</v>
@@ -3366,7 +3580,7 @@
     </row>
     <row r="97" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" s="3">
         <v>60.3</v>
@@ -3382,7 +3596,7 @@
     </row>
     <row r="98" spans="1:11" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" s="3">
         <v>66.900000000000006</v>
@@ -3398,7 +3612,7 @@
     </row>
     <row r="99" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" s="3">
         <v>64.599999999999994</v>
@@ -3414,7 +3628,7 @@
     </row>
     <row r="100" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" s="4">
         <v>55.3</v>
@@ -3430,7 +3644,7 @@
     </row>
     <row r="101" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" s="3">
         <v>59.3</v>
@@ -3446,7 +3660,7 @@
     </row>
     <row r="102" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" s="3">
         <v>56.5</v>
@@ -3462,7 +3676,7 @@
     </row>
     <row r="103" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103" s="4">
         <v>55</v>
@@ -3478,7 +3692,7 @@
     </row>
     <row r="104" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104" s="5">
         <v>80.900000000000006</v>
@@ -3494,7 +3708,7 @@
     </row>
     <row r="105" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B105" s="4">
         <v>46.3</v>
@@ -3510,7 +3724,7 @@
     </row>
     <row r="106" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106" s="4">
         <v>55.8</v>
@@ -3526,7 +3740,7 @@
     </row>
     <row r="107" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B107" s="3">
         <v>66.900000000000006</v>
@@ -3542,7 +3756,7 @@
     </row>
     <row r="108" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108" s="3">
         <v>60.9</v>
@@ -3558,7 +3772,7 @@
     </row>
     <row r="109" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" s="3">
         <v>69.8</v>
@@ -3574,7 +3788,7 @@
     </row>
     <row r="110" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B110" s="5">
         <v>80.3</v>
@@ -3590,7 +3804,7 @@
     </row>
     <row r="111" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" s="4">
         <v>53.1</v>
@@ -3606,7 +3820,7 @@
     </row>
     <row r="112" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" s="3">
         <v>59.3</v>
@@ -3622,7 +3836,7 @@
     </row>
     <row r="113" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" s="3">
         <v>67.7</v>
@@ -3638,7 +3852,7 @@
     </row>
     <row r="114" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" s="4">
         <v>49</v>
@@ -3654,7 +3868,7 @@
     </row>
     <row r="115" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115" s="5">
         <v>74.400000000000006</v>
@@ -3670,7 +3884,7 @@
     </row>
     <row r="116" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B116" s="5">
         <v>74.5</v>
@@ -3686,7 +3900,7 @@
     </row>
     <row r="117" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117" s="3">
         <v>66.099999999999994</v>
@@ -3702,7 +3916,7 @@
     </row>
     <row r="118" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118" s="3">
         <v>58.8</v>
@@ -3718,7 +3932,7 @@
     </row>
     <row r="119" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119" s="3">
         <v>60.4</v>
@@ -3734,7 +3948,7 @@
     </row>
     <row r="120" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B120" s="3">
         <v>60.1</v>
@@ -3750,7 +3964,7 @@
     </row>
     <row r="121" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B121" s="3">
         <v>64.599999999999994</v>
@@ -3766,7 +3980,7 @@
     </row>
     <row r="122" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122" s="3">
         <v>61.9</v>
@@ -3782,7 +3996,7 @@
     </row>
     <row r="123" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123" s="5">
         <v>76.8</v>
@@ -3798,7 +4012,7 @@
     </row>
     <row r="124" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124" s="3">
         <v>61.2</v>
@@ -3814,7 +4028,7 @@
     </row>
     <row r="125" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125" s="5">
         <v>72.2</v>
@@ -3830,7 +4044,7 @@
     </row>
     <row r="126" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B126" s="5">
         <v>81.900000000000006</v>
@@ -3846,7 +4060,7 @@
     </row>
     <row r="127" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B127" s="3">
         <v>64.900000000000006</v>
@@ -3862,7 +4076,7 @@
     </row>
     <row r="128" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B128" s="3">
         <v>67.400000000000006</v>
@@ -3878,7 +4092,7 @@
     </row>
     <row r="129" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B129" s="3">
         <v>63.7</v>
@@ -3894,7 +4108,7 @@
     </row>
     <row r="130" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B130" s="3">
         <v>60.1</v>
@@ -3910,7 +4124,7 @@
     </row>
     <row r="131" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B131" s="3">
         <v>61.9</v>
@@ -3926,7 +4140,7 @@
     </row>
     <row r="132" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B132" s="3">
         <v>65.7</v>
@@ -3942,7 +4156,7 @@
     </row>
     <row r="133" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B133" s="4">
         <v>51.7</v>
@@ -3958,7 +4172,7 @@
     </row>
     <row r="134" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B134" s="3">
         <v>61.2</v>
@@ -3974,7 +4188,7 @@
     </row>
     <row r="135" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B135" s="4">
         <v>51.8</v>
@@ -3990,7 +4204,7 @@
     </row>
     <row r="136" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B136" s="3">
         <v>63</v>
@@ -4006,7 +4220,7 @@
     </row>
     <row r="137" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B137" s="5">
         <v>75.2</v>
@@ -4022,7 +4236,7 @@
     </row>
     <row r="138" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B138" s="4">
         <v>51.4</v>
@@ -4038,7 +4252,7 @@
     </row>
     <row r="139" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B139" s="3">
         <v>66.7</v>
@@ -4054,7 +4268,7 @@
     </row>
     <row r="140" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140" s="3">
         <v>63</v>
@@ -4070,7 +4284,7 @@
     </row>
     <row r="141" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B141" s="5">
         <v>76.599999999999994</v>
@@ -4086,7 +4300,7 @@
     </row>
     <row r="142" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B142" s="3">
         <v>58</v>
@@ -4102,7 +4316,7 @@
     </row>
     <row r="143" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B143" s="3">
         <v>58.4</v>
@@ -4118,7 +4332,7 @@
     </row>
     <row r="144" spans="1:11" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B144" s="3">
         <v>59.5</v>
@@ -4134,7 +4348,7 @@
     </row>
     <row r="145" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B145" s="3">
         <v>57</v>
@@ -4150,7 +4364,7 @@
     </row>
     <row r="146" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B146" s="4">
         <v>52.3</v>
@@ -4166,7 +4380,7 @@
     </row>
     <row r="147" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B147" s="3">
         <v>60.9</v>
@@ -4182,7 +4396,7 @@
     </row>
     <row r="148" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B148" s="3">
         <v>63.5</v>
@@ -4198,7 +4412,7 @@
     </row>
     <row r="149" spans="1:11" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B149" s="3">
         <v>63.1</v>
@@ -4214,7 +4428,7 @@
     </row>
     <row r="150" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B150" s="4">
         <v>54.1</v>
@@ -4230,7 +4444,7 @@
     </row>
     <row r="151" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B151" s="5">
         <v>77.7</v>
@@ -4246,7 +4460,7 @@
     </row>
     <row r="152" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B152" s="5">
         <v>70</v>
@@ -4262,7 +4476,7 @@
     </row>
     <row r="153" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B153" s="3">
         <v>64.2</v>
@@ -4278,7 +4492,7 @@
     </row>
     <row r="154" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B154" s="5">
         <v>83.8</v>
@@ -4294,7 +4508,7 @@
     </row>
     <row r="155" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B155" s="3">
         <v>68.8</v>
@@ -4310,7 +4524,7 @@
     </row>
     <row r="156" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B156" s="5">
         <v>71.8</v>
@@ -4326,7 +4540,7 @@
     </row>
     <row r="157" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B157" s="3">
         <v>60.5</v>
@@ -4342,7 +4556,7 @@
     </row>
     <row r="158" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B158" s="3">
         <v>61.7</v>
@@ -4358,7 +4572,7 @@
     </row>
     <row r="159" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B159" s="4">
         <v>49.4</v>
@@ -4374,7 +4588,7 @@
     </row>
     <row r="160" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B160" s="3">
         <v>56.1</v>
@@ -4390,7 +4604,7 @@
     </row>
     <row r="161" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B161" s="3">
         <v>68.2</v>
@@ -4406,7 +4620,7 @@
     </row>
     <row r="162" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B162" s="3">
         <v>62.1</v>
@@ -4422,7 +4636,7 @@
     </row>
     <row r="163" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B163" s="5">
         <v>77.5</v>
@@ -4438,7 +4652,7 @@
     </row>
     <row r="164" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B164" s="3">
         <v>69.900000000000006</v>
@@ -4454,7 +4668,7 @@
     </row>
     <row r="165" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B165" s="3">
         <v>64.5</v>
@@ -4470,7 +4684,7 @@
     </row>
     <row r="166" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B166" s="3">
         <v>63.2</v>
@@ -4486,7 +4700,7 @@
     </row>
     <row r="167" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B167" s="3">
         <v>61.6</v>
@@ -4502,7 +4716,7 @@
     </row>
     <row r="168" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B168" s="5">
         <v>82.4</v>
@@ -4518,7 +4732,7 @@
     </row>
     <row r="169" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B169" s="3">
         <v>58.2</v>
@@ -4534,7 +4748,7 @@
     </row>
     <row r="170" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B170" s="3">
         <v>59.6</v>
@@ -4550,7 +4764,7 @@
     </row>
     <row r="171" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B171" s="3">
         <v>59.6</v>
@@ -4566,7 +4780,7 @@
     </row>
     <row r="172" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B172" s="3">
         <v>63.2</v>
@@ -4582,7 +4796,7 @@
     </row>
     <row r="173" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B173" s="3">
         <v>63.2</v>
@@ -4598,7 +4812,7 @@
     </row>
     <row r="174" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B174" s="3">
         <v>64.599999999999994</v>
@@ -4614,7 +4828,7 @@
     </row>
     <row r="175" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B175" s="4">
         <v>54.8</v>
@@ -4630,7 +4844,7 @@
     </row>
     <row r="176" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B176" s="3">
         <v>63.1</v>
@@ -4646,7 +4860,7 @@
     </row>
     <row r="177" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B177" s="4">
         <v>54.6</v>
@@ -4662,7 +4876,7 @@
     </row>
     <row r="178" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B178" s="3">
         <v>64.900000000000006</v>
@@ -4678,7 +4892,7 @@
     </row>
     <row r="179" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B179" s="3">
         <v>65.400000000000006</v>
@@ -4694,7 +4908,7 @@
     </row>
     <row r="180" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B180" s="5">
         <v>73</v>
@@ -4710,7 +4924,7 @@
     </row>
     <row r="181" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B181" s="5">
         <v>71.900000000000006</v>
@@ -4726,7 +4940,7 @@
     </row>
     <row r="182" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B182" s="5">
         <v>71.599999999999994</v>
@@ -4742,7 +4956,7 @@
     </row>
     <row r="183" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B183" s="3">
         <v>58.7</v>
@@ -4758,7 +4972,7 @@
     </row>
     <row r="184" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B184" s="5">
         <v>70.099999999999994</v>
@@ -4774,7 +4988,7 @@
     </row>
     <row r="185" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B185" s="3">
         <v>59.5</v>
@@ -4790,7 +5004,7 @@
     </row>
     <row r="186" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B186" s="3">
         <v>67</v>
@@ -4806,7 +5020,7 @@
     </row>
     <row r="187" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B187" s="5">
         <v>74.5</v>
@@ -4822,7 +5036,7 @@
     </row>
     <row r="188" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B188" s="3">
         <v>58.6</v>
@@ -4838,7 +5052,7 @@
     </row>
     <row r="189" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B189" s="5">
         <v>81.2</v>
@@ -4854,7 +5068,7 @@
     </row>
     <row r="190" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B190" s="5">
         <v>95.6</v>
@@ -4870,7 +5084,7 @@
     </row>
     <row r="191" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B191" s="3">
         <v>59.2</v>
@@ -4886,7 +5100,7 @@
     </row>
     <row r="192" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B192" s="5">
         <v>79.400000000000006</v>
@@ -4902,7 +5116,7 @@
     </row>
     <row r="193" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B193" s="3">
         <v>63.3</v>
@@ -4918,7 +5132,7 @@
     </row>
     <row r="194" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B194" s="5">
         <v>84.7</v>
@@ -4934,7 +5148,7 @@
     </row>
     <row r="195" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B195" s="3">
         <v>66.099999999999994</v>
@@ -4950,7 +5164,7 @@
     </row>
     <row r="196" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B196" s="3">
         <v>64.900000000000006</v>
@@ -4966,7 +5180,7 @@
     </row>
     <row r="197" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B197" s="3">
         <v>69.7</v>
@@ -4982,7 +5196,7 @@
     </row>
     <row r="198" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B198" s="4">
         <v>55</v>
@@ -4998,7 +5212,7 @@
     </row>
     <row r="199" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B199" s="3">
         <v>69.400000000000006</v>
@@ -5014,7 +5228,7 @@
     </row>
     <row r="200" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B200" s="3">
         <v>64</v>
@@ -5030,7 +5244,7 @@
     </row>
     <row r="201" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B201" s="5">
         <v>76.900000000000006</v>
@@ -5046,7 +5260,7 @@
     </row>
     <row r="202" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B202" s="5">
         <v>71.3</v>
@@ -5062,7 +5276,7 @@
     </row>
     <row r="203" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B203" s="3">
         <v>65.3</v>
@@ -5078,7 +5292,7 @@
     </row>
     <row r="204" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B204" s="3">
         <v>68.5</v>
@@ -5094,7 +5308,7 @@
     </row>
     <row r="205" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B205" s="3">
         <v>64.3</v>
@@ -5110,7 +5324,7 @@
     </row>
     <row r="206" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B206" s="5">
         <v>88.1</v>
@@ -5126,7 +5340,7 @@
     </row>
     <row r="207" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B207" s="4">
         <v>54.8</v>
@@ -5142,7 +5356,7 @@
     </row>
     <row r="208" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B208" s="5">
         <v>72.900000000000006</v>
@@ -5158,7 +5372,7 @@
     </row>
     <row r="209" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B209" s="3">
         <v>68.2</v>
@@ -5174,7 +5388,7 @@
     </row>
     <row r="210" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B210" s="3">
         <v>64.099999999999994</v>
@@ -5190,7 +5404,7 @@
     </row>
     <row r="211" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B211" s="3">
         <v>57.2</v>
@@ -5206,7 +5420,7 @@
     </row>
     <row r="212" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B212" s="3">
         <v>65.099999999999994</v>
@@ -5222,7 +5436,7 @@
     </row>
     <row r="213" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B213" s="3">
         <v>67.099999999999994</v>
@@ -5238,7 +5452,7 @@
     </row>
     <row r="214" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B214" s="5">
         <v>72.5</v>
@@ -5254,7 +5468,7 @@
     </row>
     <row r="215" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B215" s="5">
         <v>76.3</v>
@@ -5270,7 +5484,7 @@
     </row>
     <row r="216" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B216" s="5">
         <v>85.3</v>
@@ -5286,7 +5500,7 @@
     </row>
     <row r="217" spans="1:11" ht="147" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B217" s="5">
         <v>80.400000000000006</v>
@@ -5302,7 +5516,7 @@
     </row>
     <row r="218" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B218" s="5">
         <v>72.7</v>
@@ -5318,7 +5532,7 @@
     </row>
     <row r="219" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B219" s="5">
         <v>70.599999999999994</v>
@@ -5334,7 +5548,7 @@
     </row>
     <row r="220" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B220" s="5">
         <v>93.2</v>
@@ -5350,7 +5564,7 @@
     </row>
     <row r="221" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B221" s="3">
         <v>69.5</v>
@@ -5366,7 +5580,7 @@
     </row>
     <row r="222" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B222" s="3">
         <v>63.9</v>
@@ -5382,7 +5596,7 @@
     </row>
     <row r="223" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B223" s="3">
         <v>68.5</v>
@@ -5398,7 +5612,7 @@
     </row>
     <row r="224" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B224" s="3">
         <v>64</v>
@@ -5414,7 +5628,7 @@
     </row>
     <row r="225" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B225" s="3">
         <v>61.6</v>
@@ -5430,7 +5644,7 @@
     </row>
     <row r="226" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B226" s="3">
         <v>68.599999999999994</v>
@@ -5446,7 +5660,7 @@
     </row>
     <row r="227" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B227" s="5">
         <v>74.599999999999994</v>
@@ -5462,7 +5676,7 @@
     </row>
     <row r="228" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B228" s="3">
         <v>69.400000000000006</v>
@@ -5478,7 +5692,7 @@
     </row>
     <row r="229" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B229" s="5">
         <v>72.400000000000006</v>
@@ -5494,7 +5708,7 @@
     </row>
     <row r="230" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B230" s="5">
         <v>89</v>
@@ -5510,7 +5724,7 @@
     </row>
     <row r="231" spans="1:11" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B231" s="5">
         <v>83.8</v>
@@ -5524,9 +5738,9 @@
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
     </row>
-    <row r="232" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B232" s="5">
         <v>81.099999999999994</v>
@@ -5540,9 +5754,9 @@
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
     </row>
-    <row r="233" spans="1:11" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="2" t="s">
-        <v>230</v>
+    <row r="233" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>509</v>
       </c>
       <c r="B233" s="5">
         <v>83.4</v>
@@ -5556,9 +5770,9 @@
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
     </row>
-    <row r="234" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B234" s="3">
         <v>69.099999999999994</v>
@@ -5574,7 +5788,7 @@
     </row>
     <row r="235" spans="1:11" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B235" s="5">
         <v>75.7</v>
@@ -5590,7 +5804,7 @@
     </row>
     <row r="236" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B236" s="3">
         <v>69.599999999999994</v>
@@ -5606,7 +5820,7 @@
     </row>
     <row r="237" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B237" s="5">
         <v>84.6</v>
@@ -5622,7 +5836,7 @@
     </row>
     <row r="238" spans="1:11" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B238" s="5">
         <v>71.5</v>
@@ -5638,7 +5852,7 @@
     </row>
     <row r="239" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B239" s="4">
         <v>54</v>
@@ -5654,7 +5868,7 @@
     </row>
     <row r="240" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B240" s="5">
         <v>84</v>
@@ -5670,7 +5884,7 @@
     </row>
     <row r="241" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B241" s="3">
         <v>56</v>
@@ -5686,7 +5900,7 @@
     </row>
     <row r="242" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B242" s="3">
         <v>68.5</v>
@@ -5702,7 +5916,7 @@
     </row>
     <row r="243" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B243" s="4">
         <v>52.5</v>
@@ -5718,7 +5932,7 @@
     </row>
     <row r="244" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B244" s="5">
         <v>85.2</v>
@@ -5734,7 +5948,7 @@
     </row>
     <row r="245" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B245" s="3">
         <v>67.2</v>
@@ -5750,7 +5964,7 @@
     </row>
     <row r="246" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B246" s="3">
         <v>63.5</v>
@@ -5766,7 +5980,7 @@
     </row>
     <row r="247" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B247" s="5">
         <v>73</v>
@@ -5782,7 +5996,7 @@
     </row>
     <row r="248" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B248" s="5">
         <v>72.7</v>
@@ -5798,7 +6012,7 @@
     </row>
     <row r="249" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B249" s="3">
         <v>63.3</v>
@@ -5814,7 +6028,7 @@
     </row>
     <row r="250" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B250" s="3">
         <v>63.8</v>
@@ -5830,7 +6044,7 @@
     </row>
     <row r="251" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B251" s="3">
         <v>65.8</v>
@@ -5846,7 +6060,7 @@
     </row>
     <row r="252" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B252" s="4">
         <v>54.4</v>
@@ -5862,7 +6076,7 @@
     </row>
     <row r="253" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B253" s="5">
         <v>71.7</v>
@@ -5878,7 +6092,7 @@
     </row>
     <row r="254" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B254" s="4">
         <v>54.9</v>
@@ -5894,7 +6108,7 @@
     </row>
     <row r="255" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B255" s="3">
         <v>64.900000000000006</v>
@@ -5910,7 +6124,7 @@
     </row>
     <row r="256" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B256" s="5">
         <v>78.7</v>
@@ -5926,7 +6140,7 @@
     </row>
     <row r="257" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B257" s="3">
         <v>64.099999999999994</v>
@@ -5942,7 +6156,7 @@
     </row>
     <row r="258" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B258" s="5">
         <v>72.2</v>
@@ -5958,7 +6172,7 @@
     </row>
     <row r="259" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B259" s="5">
         <v>82.2</v>
@@ -5974,7 +6188,7 @@
     </row>
     <row r="260" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B260" s="5">
         <v>73.900000000000006</v>
@@ -5990,7 +6204,7 @@
     </row>
     <row r="261" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B261" s="4">
         <v>52.4</v>
@@ -6006,7 +6220,7 @@
     </row>
     <row r="262" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B262" s="3">
         <v>65.099999999999994</v>
@@ -6022,7 +6236,7 @@
     </row>
     <row r="263" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B263" s="5">
         <v>76.400000000000006</v>
@@ -6038,7 +6252,7 @@
     </row>
     <row r="264" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B264" s="4">
         <v>53.9</v>
@@ -6054,7 +6268,7 @@
     </row>
     <row r="265" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B265" s="3">
         <v>65.900000000000006</v>
@@ -6070,7 +6284,7 @@
     </row>
     <row r="266" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B266" s="3">
         <v>62.4</v>
@@ -6086,7 +6300,7 @@
     </row>
     <row r="267" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B267" s="3">
         <v>59.8</v>
@@ -6102,7 +6316,7 @@
     </row>
     <row r="268" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B268" s="3">
         <v>69.3</v>
@@ -6118,7 +6332,7 @@
     </row>
     <row r="269" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B269" s="3">
         <v>62.7</v>
@@ -6134,7 +6348,7 @@
     </row>
     <row r="270" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B270" s="5">
         <v>77.5</v>
@@ -6150,7 +6364,7 @@
     </row>
     <row r="271" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B271" s="3">
         <v>58.5</v>
@@ -6166,7 +6380,7 @@
     </row>
     <row r="272" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B272" s="3">
         <v>63.9</v>
@@ -6182,7 +6396,7 @@
     </row>
     <row r="273" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B273" s="3">
         <v>64.099999999999994</v>
@@ -6198,7 +6412,7 @@
     </row>
     <row r="274" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B274" s="3">
         <v>65.900000000000006</v>
@@ -6214,7 +6428,7 @@
     </row>
     <row r="275" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B275" s="3">
         <v>62.1</v>
@@ -6230,7 +6444,7 @@
     </row>
     <row r="276" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B276" s="3">
         <v>65.900000000000006</v>
@@ -6246,7 +6460,7 @@
     </row>
     <row r="277" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B277" s="3">
         <v>69.5</v>
@@ -6262,7 +6476,7 @@
     </row>
     <row r="278" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B278" s="3">
         <v>68</v>
@@ -6278,7 +6492,7 @@
     </row>
     <row r="279" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B279" s="3">
         <v>58</v>
@@ -6294,7 +6508,7 @@
     </row>
     <row r="280" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B280" s="3">
         <v>65.7</v>
@@ -6310,7 +6524,7 @@
     </row>
     <row r="281" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B281" s="3">
         <v>67.900000000000006</v>
@@ -6326,7 +6540,7 @@
     </row>
     <row r="282" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B282" s="3">
         <v>65.400000000000006</v>
@@ -6342,7 +6556,7 @@
     </row>
     <row r="283" spans="1:11" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B283" s="5">
         <v>86.1</v>
@@ -6358,7 +6572,7 @@
     </row>
     <row r="284" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B284" s="5">
         <v>74.2</v>
@@ -6374,7 +6588,7 @@
     </row>
     <row r="285" spans="1:11" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B285" s="4">
         <v>55.7</v>
@@ -6390,7 +6604,7 @@
     </row>
     <row r="286" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B286" s="5">
         <v>73.2</v>
@@ -6406,7 +6620,7 @@
     </row>
     <row r="287" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B287" s="5">
         <v>73.099999999999994</v>
@@ -6422,7 +6636,7 @@
     </row>
     <row r="288" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B288" s="3">
         <v>63.8</v>
@@ -6438,7 +6652,7 @@
     </row>
     <row r="289" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B289" s="3">
         <v>64.099999999999994</v>
@@ -6452,9 +6666,9 @@
       <c r="J289" s="3"/>
       <c r="K289" s="3"/>
     </row>
-    <row r="290" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="B290" s="3">
         <v>64.099999999999994</v>
@@ -6470,7 +6684,7 @@
     </row>
     <row r="291" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B291" s="3">
         <v>66.3</v>
@@ -6486,7 +6700,7 @@
     </row>
     <row r="292" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B292" s="3">
         <v>67.2</v>
@@ -6502,7 +6716,7 @@
     </row>
     <row r="293" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B293" s="3">
         <v>59.2</v>
@@ -6518,7 +6732,7 @@
     </row>
     <row r="294" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B294" s="5">
         <v>70.3</v>
@@ -6534,7 +6748,7 @@
     </row>
     <row r="295" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B295" s="3">
         <v>60.8</v>
@@ -6550,7 +6764,7 @@
     </row>
     <row r="296" spans="1:11" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B296" s="5">
         <v>71.3</v>
@@ -6566,7 +6780,7 @@
     </row>
     <row r="297" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B297" s="4">
         <v>51.7</v>
@@ -6582,7 +6796,7 @@
     </row>
     <row r="298" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B298" s="4">
         <v>46.6</v>
@@ -6598,7 +6812,7 @@
     </row>
     <row r="299" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B299" s="3">
         <v>67.3</v>
@@ -6614,7 +6828,7 @@
     </row>
     <row r="300" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B300" s="5">
         <v>78.7</v>
@@ -6630,7 +6844,7 @@
     </row>
     <row r="301" spans="1:11" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B301" s="5">
         <v>82</v>
@@ -6646,7 +6860,7 @@
     </row>
     <row r="302" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B302" s="5">
         <v>83.6</v>
@@ -6662,7 +6876,7 @@
     </row>
     <row r="303" spans="1:11" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B303" s="5">
         <v>83.4</v>
@@ -6678,7 +6892,7 @@
     </row>
     <row r="304" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B304" s="5">
         <v>75.7</v>
@@ -6692,9 +6906,9 @@
       <c r="J304" s="3"/>
       <c r="K304" s="3"/>
     </row>
-    <row r="305" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B305" s="3">
         <v>67.3</v>
@@ -6708,9 +6922,9 @@
       <c r="J305" s="3"/>
       <c r="K305" s="3"/>
     </row>
-    <row r="306" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="2" t="s">
-        <v>302</v>
+    <row r="306" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>475</v>
       </c>
       <c r="B306" s="3">
         <v>60.4</v>
@@ -6724,9 +6938,9 @@
       <c r="J306" s="3"/>
       <c r="K306" s="3"/>
     </row>
-    <row r="307" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B307" s="3">
         <v>63.3</v>
@@ -6742,7 +6956,7 @@
     </row>
     <row r="308" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B308" s="5">
         <v>81.8</v>
@@ -6758,7 +6972,7 @@
     </row>
     <row r="309" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B309" s="5">
         <v>81.2</v>
@@ -6774,7 +6988,7 @@
     </row>
     <row r="310" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B310" s="5">
         <v>70.7</v>
@@ -6790,7 +7004,7 @@
     </row>
     <row r="311" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B311" s="3">
         <v>64.3</v>
@@ -6806,7 +7020,7 @@
     </row>
     <row r="312" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B312" s="5">
         <v>70.5</v>
@@ -6822,7 +7036,7 @@
     </row>
     <row r="313" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B313" s="5">
         <v>75.3</v>
@@ -6838,7 +7052,7 @@
     </row>
     <row r="314" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B314" s="5">
         <v>70.099999999999994</v>
@@ -6854,7 +7068,7 @@
     </row>
     <row r="315" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B315" s="5">
         <v>81.599999999999994</v>
@@ -6870,7 +7084,7 @@
     </row>
     <row r="316" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B316" s="5">
         <v>70.3</v>
@@ -6886,7 +7100,7 @@
     </row>
     <row r="317" spans="1:11" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B317" s="5">
         <v>83.2</v>
@@ -6902,7 +7116,7 @@
     </row>
     <row r="318" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B318" s="5">
         <v>77.599999999999994</v>
@@ -6918,7 +7132,7 @@
     </row>
     <row r="319" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B319" s="5">
         <v>76.599999999999994</v>
@@ -6934,7 +7148,7 @@
     </row>
     <row r="320" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B320" s="5">
         <v>85.2</v>
@@ -6950,7 +7164,7 @@
     </row>
     <row r="321" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B321" s="5">
         <v>82.9</v>
@@ -6966,7 +7180,7 @@
     </row>
     <row r="322" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B322" s="3">
         <v>66.2</v>
@@ -6982,7 +7196,7 @@
     </row>
     <row r="323" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B323" s="3">
         <v>63.6</v>
@@ -6998,7 +7212,7 @@
     </row>
     <row r="324" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B324" s="5">
         <v>73.599999999999994</v>
@@ -7014,7 +7228,7 @@
     </row>
     <row r="325" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B325" s="3">
         <v>57.8</v>
@@ -7030,7 +7244,7 @@
     </row>
     <row r="326" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B326" s="3">
         <v>56</v>
@@ -7046,7 +7260,7 @@
     </row>
     <row r="327" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B327" s="5">
         <v>80.7</v>
@@ -7062,7 +7276,7 @@
     </row>
     <row r="328" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B328" s="3">
         <v>65.599999999999994</v>
@@ -7078,7 +7292,7 @@
     </row>
     <row r="329" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B329" s="3">
         <v>68.099999999999994</v>
@@ -7094,7 +7308,7 @@
     </row>
     <row r="330" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B330" s="3">
         <v>66.3</v>
@@ -7110,7 +7324,7 @@
     </row>
     <row r="331" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B331" s="4">
         <v>54.7</v>
@@ -7126,7 +7340,7 @@
     </row>
     <row r="332" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B332" s="3">
         <v>67.400000000000006</v>
@@ -7142,7 +7356,7 @@
     </row>
     <row r="333" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B333" s="5">
         <v>70.3</v>
@@ -7158,7 +7372,7 @@
     </row>
     <row r="334" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B334" s="5">
         <v>82.4</v>
@@ -7174,7 +7388,7 @@
     </row>
     <row r="335" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B335" s="3">
         <v>63.2</v>
@@ -7190,7 +7404,7 @@
     </row>
     <row r="336" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B336" s="5">
         <v>73.5</v>
@@ -7206,7 +7420,7 @@
     </row>
     <row r="337" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B337" s="3">
         <v>58</v>
@@ -7222,7 +7436,7 @@
     </row>
     <row r="338" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B338" s="5">
         <v>77.8</v>
@@ -7238,7 +7452,7 @@
     </row>
     <row r="339" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B339" s="3">
         <v>68.7</v>
@@ -7254,7 +7468,7 @@
     </row>
     <row r="340" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B340" s="3">
         <v>60.6</v>
@@ -7270,7 +7484,7 @@
     </row>
     <row r="341" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B341" s="5">
         <v>80.400000000000006</v>
@@ -7286,7 +7500,7 @@
     </row>
     <row r="342" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B342" s="3">
         <v>57.8</v>
@@ -7302,7 +7516,7 @@
     </row>
     <row r="343" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B343" s="5">
         <v>73.400000000000006</v>
@@ -7318,7 +7532,7 @@
     </row>
     <row r="344" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B344" s="5">
         <v>72.099999999999994</v>
@@ -7334,7 +7548,7 @@
     </row>
     <row r="345" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B345" s="5">
         <v>88.6</v>
@@ -7350,7 +7564,7 @@
     </row>
     <row r="346" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B346" s="3">
         <v>58.7</v>
@@ -7364,9 +7578,9 @@
       <c r="J346" s="3"/>
       <c r="K346" s="3"/>
     </row>
-    <row r="347" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B347" s="5">
         <v>83.6</v>
@@ -7380,9 +7594,9 @@
       <c r="J347" s="3"/>
       <c r="K347" s="3"/>
     </row>
-    <row r="348" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="2" t="s">
-        <v>466</v>
+    <row r="348" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>473</v>
       </c>
       <c r="B348" s="5">
         <v>75.8</v>
@@ -7396,9 +7610,9 @@
       <c r="J348" s="3"/>
       <c r="K348" s="3"/>
     </row>
-    <row r="349" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B349" s="5">
         <v>71.599999999999994</v>
@@ -7414,7 +7628,7 @@
     </row>
     <row r="350" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B350" s="3">
         <v>62.8</v>
@@ -7430,7 +7644,7 @@
     </row>
     <row r="351" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B351" s="5">
         <v>87.8</v>
@@ -7444,9 +7658,9 @@
       <c r="J351" s="3"/>
       <c r="K351" s="3"/>
     </row>
-    <row r="352" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="2" t="s">
-        <v>344</v>
+    <row r="352" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>477</v>
       </c>
       <c r="B352" s="3">
         <v>65.2</v>
@@ -7460,9 +7674,9 @@
       <c r="J352" s="3"/>
       <c r="K352" s="3"/>
     </row>
-    <row r="353" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B353" s="3">
         <v>65.3</v>
@@ -7478,7 +7692,7 @@
     </row>
     <row r="354" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B354" s="5">
         <v>70.2</v>
@@ -7494,7 +7708,7 @@
     </row>
     <row r="355" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B355" s="3">
         <v>68.5</v>
@@ -7508,9 +7722,9 @@
       <c r="J355" s="3"/>
       <c r="K355" s="3"/>
     </row>
-    <row r="356" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B356" s="3">
         <v>69.400000000000006</v>
@@ -7524,9 +7738,9 @@
       <c r="J356" s="3"/>
       <c r="K356" s="3"/>
     </row>
-    <row r="357" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="2" t="s">
-        <v>468</v>
+    <row r="357" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>464</v>
       </c>
       <c r="B357" s="5">
         <v>77.599999999999994</v>
@@ -7540,9 +7754,9 @@
       <c r="J357" s="3"/>
       <c r="K357" s="3"/>
     </row>
-    <row r="358" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B358" s="5">
         <v>74.400000000000006</v>
@@ -7558,7 +7772,7 @@
     </row>
     <row r="359" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B359" s="5">
         <v>80.5</v>
@@ -7574,7 +7788,7 @@
     </row>
     <row r="360" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B360" s="5">
         <v>75</v>
@@ -7590,7 +7804,7 @@
     </row>
     <row r="361" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B361" s="3">
         <v>68.400000000000006</v>
@@ -7606,7 +7820,7 @@
     </row>
     <row r="362" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B362" s="4">
         <v>55.2</v>
@@ -7622,7 +7836,7 @@
     </row>
     <row r="363" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B363" s="5">
         <v>82</v>
@@ -7638,7 +7852,7 @@
     </row>
     <row r="364" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B364" s="5">
         <v>75.3</v>
@@ -7654,7 +7868,7 @@
     </row>
     <row r="365" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B365" s="3">
         <v>63.7</v>
@@ -7670,7 +7884,7 @@
     </row>
     <row r="366" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B366" s="3">
         <v>68.5</v>
@@ -7686,7 +7900,7 @@
     </row>
     <row r="367" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B367" s="3">
         <v>56.3</v>
@@ -7702,7 +7916,7 @@
     </row>
     <row r="368" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B368" s="3">
         <v>64.400000000000006</v>
@@ -7718,7 +7932,7 @@
     </row>
     <row r="369" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B369" s="5">
         <v>74.8</v>
@@ -7734,7 +7948,7 @@
     </row>
     <row r="370" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B370" s="4">
         <v>53.5</v>
@@ -7750,7 +7964,7 @@
     </row>
     <row r="371" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B371" s="3">
         <v>60.1</v>
@@ -7766,7 +7980,7 @@
     </row>
     <row r="372" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B372" s="5">
         <v>81.5</v>
@@ -7782,7 +7996,7 @@
     </row>
     <row r="373" spans="1:11" ht="147" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B373" s="5">
         <v>75</v>
@@ -7798,7 +8012,7 @@
     </row>
     <row r="374" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B374" s="3">
         <v>58.3</v>
@@ -7814,7 +8028,7 @@
     </row>
     <row r="375" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B375" s="3">
         <v>66.3</v>
@@ -7830,7 +8044,7 @@
     </row>
     <row r="376" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B376" s="3">
         <v>66.8</v>
@@ -7846,7 +8060,7 @@
     </row>
     <row r="377" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B377" s="5">
         <v>80.8</v>
@@ -7862,7 +8076,7 @@
     </row>
     <row r="378" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B378" s="3">
         <v>62.3</v>
@@ -7878,7 +8092,7 @@
     </row>
     <row r="379" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B379" s="3">
         <v>69.8</v>
@@ -7894,7 +8108,7 @@
     </row>
     <row r="380" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B380" s="3">
         <v>62.9</v>
@@ -7910,7 +8124,7 @@
     </row>
     <row r="381" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B381" s="3">
         <v>64.099999999999994</v>
@@ -7926,7 +8140,7 @@
     </row>
     <row r="382" spans="1:11" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B382" s="3">
         <v>66.900000000000006</v>
@@ -7942,7 +8156,7 @@
     </row>
     <row r="383" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B383" s="4">
         <v>55.6</v>
@@ -7958,7 +8172,7 @@
     </row>
     <row r="384" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B384" s="5">
         <v>79.099999999999994</v>
@@ -7974,7 +8188,7 @@
     </row>
     <row r="385" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B385" s="3">
         <v>56.6</v>
@@ -7990,7 +8204,7 @@
     </row>
     <row r="386" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B386" s="3">
         <v>68</v>
@@ -8006,7 +8220,7 @@
     </row>
     <row r="387" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B387" s="3">
         <v>68</v>
@@ -8022,7 +8236,7 @@
     </row>
     <row r="388" spans="1:11" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B388" s="5">
         <v>72.099999999999994</v>
@@ -8038,7 +8252,7 @@
     </row>
     <row r="389" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B389" s="3">
         <v>66.900000000000006</v>
@@ -8054,7 +8268,7 @@
     </row>
     <row r="390" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B390" s="5">
         <v>81</v>
@@ -8070,7 +8284,7 @@
     </row>
     <row r="391" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B391" s="3">
         <v>56.2</v>
@@ -8086,7 +8300,7 @@
     </row>
     <row r="392" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B392" s="3">
         <v>67.400000000000006</v>
@@ -8102,7 +8316,7 @@
     </row>
     <row r="393" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B393" s="4">
         <v>50.2</v>
@@ -8118,7 +8332,7 @@
     </row>
     <row r="394" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B394" s="3">
         <v>65.599999999999994</v>
@@ -8134,7 +8348,7 @@
     </row>
     <row r="395" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B395" s="3">
         <v>63.6</v>
@@ -8150,7 +8364,7 @@
     </row>
     <row r="396" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B396" s="5">
         <v>79.2</v>
@@ -8166,7 +8380,7 @@
     </row>
     <row r="397" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B397" s="3">
         <v>64.3</v>
@@ -8182,7 +8396,7 @@
     </row>
     <row r="398" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B398" s="3">
         <v>62.8</v>
@@ -8198,7 +8412,7 @@
     </row>
     <row r="399" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B399" s="3">
         <v>63.7</v>
@@ -8214,7 +8428,7 @@
     </row>
     <row r="400" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B400" s="3">
         <v>62.9</v>
@@ -8230,7 +8444,7 @@
     </row>
     <row r="401" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B401" s="3">
         <v>61.8</v>
@@ -8246,7 +8460,7 @@
     </row>
     <row r="402" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B402" s="3">
         <v>60.3</v>
@@ -8262,7 +8476,7 @@
     </row>
     <row r="403" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B403" s="3">
         <v>67</v>
@@ -8278,7 +8492,7 @@
     </row>
     <row r="404" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B404" s="5">
         <v>82.1</v>
@@ -8294,7 +8508,7 @@
     </row>
     <row r="405" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B405" s="4">
         <v>50.7</v>
@@ -8310,7 +8524,7 @@
     </row>
     <row r="406" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B406" s="3">
         <v>57.5</v>
@@ -8326,7 +8540,7 @@
     </row>
     <row r="407" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B407" s="3">
         <v>66.400000000000006</v>
@@ -8342,7 +8556,7 @@
     </row>
     <row r="408" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B408" s="3">
         <v>68.8</v>
@@ -8358,7 +8572,7 @@
     </row>
     <row r="409" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B409" s="3">
         <v>61.4</v>
@@ -8374,7 +8588,7 @@
     </row>
     <row r="410" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B410" s="3">
         <v>59.7</v>
@@ -8390,7 +8604,7 @@
     </row>
     <row r="411" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B411" s="3">
         <v>63.9</v>
@@ -8406,7 +8620,7 @@
     </row>
     <row r="412" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B412" s="3">
         <v>60.2</v>
@@ -8422,7 +8636,7 @@
     </row>
     <row r="413" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B413" s="3">
         <v>63.4</v>
@@ -8438,7 +8652,7 @@
     </row>
     <row r="414" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B414" s="3">
         <v>66.900000000000006</v>
@@ -8454,7 +8668,7 @@
     </row>
     <row r="415" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B415" s="3">
         <v>59.1</v>
@@ -8470,7 +8684,7 @@
     </row>
     <row r="416" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B416" s="3">
         <v>67</v>
@@ -8486,7 +8700,7 @@
     </row>
     <row r="417" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B417" s="3">
         <v>64.099999999999994</v>
@@ -8502,7 +8716,7 @@
     </row>
     <row r="418" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B418" s="5">
         <v>71.900000000000006</v>
@@ -8518,7 +8732,7 @@
     </row>
     <row r="419" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B419" s="5">
         <v>78.3</v>
@@ -8534,7 +8748,7 @@
     </row>
     <row r="420" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B420" s="3">
         <v>67.900000000000006</v>
@@ -8550,7 +8764,7 @@
     </row>
     <row r="421" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B421" s="3">
         <v>63.4</v>
@@ -8566,7 +8780,7 @@
     </row>
     <row r="422" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B422" s="5">
         <v>70.900000000000006</v>
@@ -8582,7 +8796,7 @@
     </row>
     <row r="423" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B423" s="3">
         <v>64.7</v>
@@ -8598,7 +8812,7 @@
     </row>
     <row r="424" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B424" s="4">
         <v>52.7</v>
@@ -8614,7 +8828,7 @@
     </row>
     <row r="425" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B425" s="3">
         <v>65.5</v>
@@ -8630,7 +8844,7 @@
     </row>
     <row r="426" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B426" s="3">
         <v>61.7</v>
@@ -8646,7 +8860,7 @@
     </row>
     <row r="427" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B427" s="3">
         <v>66</v>
@@ -8662,7 +8876,7 @@
     </row>
     <row r="428" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B428" s="3">
         <v>69.099999999999994</v>
@@ -8678,7 +8892,7 @@
     </row>
     <row r="429" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B429" s="4">
         <v>51.6</v>
@@ -8694,7 +8908,7 @@
     </row>
     <row r="430" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B430" s="5">
         <v>80.400000000000006</v>
@@ -8710,7 +8924,7 @@
     </row>
     <row r="431" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B431" s="5">
         <v>81.900000000000006</v>
@@ -8726,7 +8940,7 @@
     </row>
     <row r="432" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B432" s="3">
         <v>58</v>
@@ -8742,7 +8956,7 @@
     </row>
     <row r="433" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B433" s="5">
         <v>78.3</v>
@@ -8758,7 +8972,7 @@
     </row>
     <row r="434" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B434" s="3">
         <v>60.6</v>
@@ -8774,7 +8988,7 @@
     </row>
     <row r="435" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B435" s="4">
         <v>54.7</v>
@@ -8790,7 +9004,7 @@
     </row>
     <row r="436" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B436" s="3">
         <v>69.900000000000006</v>
@@ -8806,7 +9020,7 @@
     </row>
     <row r="437" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B437" s="3">
         <v>65.5</v>
@@ -8822,7 +9036,7 @@
     </row>
     <row r="438" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B438" s="5">
         <v>73.900000000000006</v>
@@ -8838,7 +9052,7 @@
     </row>
     <row r="439" spans="1:11" ht="147" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B439" s="5">
         <v>81.8</v>
@@ -8854,7 +9068,7 @@
     </row>
     <row r="440" spans="1:11" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B440" s="3">
         <v>69.400000000000006</v>
@@ -8870,7 +9084,7 @@
     </row>
     <row r="441" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B441" s="3">
         <v>65.599999999999994</v>
@@ -8886,7 +9100,7 @@
     </row>
     <row r="442" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B442" s="5">
         <v>77.400000000000006</v>
@@ -8902,7 +9116,7 @@
     </row>
     <row r="443" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B443" s="3">
         <v>60.1</v>
@@ -8918,7 +9132,7 @@
     </row>
     <row r="444" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B444" s="3">
         <v>60.2</v>
@@ -8934,7 +9148,7 @@
     </row>
     <row r="445" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B445" s="3">
         <v>67.8</v>
@@ -8950,7 +9164,7 @@
     </row>
     <row r="446" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B446" s="5">
         <v>85.4</v>
@@ -8966,7 +9180,7 @@
     </row>
     <row r="447" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B447" s="3">
         <v>69.2</v>
@@ -8982,7 +9196,7 @@
     </row>
     <row r="448" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B448" s="3">
         <v>63.1</v>
@@ -8998,7 +9212,7 @@
     </row>
     <row r="449" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B449" s="5">
         <v>75.7</v>
@@ -9014,7 +9228,7 @@
     </row>
     <row r="450" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B450" s="4">
         <v>53.3</v>
@@ -9030,7 +9244,7 @@
     </row>
     <row r="451" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B451" s="3">
         <v>65.3</v>
@@ -9046,7 +9260,7 @@
     </row>
     <row r="452" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B452" s="5">
         <v>70.400000000000006</v>
@@ -9062,7 +9276,7 @@
     </row>
     <row r="453" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B453" s="3">
         <v>59.3</v>
@@ -9078,7 +9292,7 @@
     </row>
     <row r="454" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B454" s="4">
         <v>54.4</v>
@@ -9094,7 +9308,7 @@
     </row>
     <row r="455" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B455" s="3">
         <v>59.7</v>
@@ -9110,7 +9324,7 @@
     </row>
     <row r="456" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B456" s="3">
         <v>69.400000000000006</v>
@@ -9126,7 +9340,7 @@
     </row>
     <row r="457" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B457" s="4">
         <v>55.9</v>
@@ -9142,7 +9356,7 @@
     </row>
     <row r="458" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B458" s="3">
         <v>66.099999999999994</v>
@@ -9158,7 +9372,7 @@
     </row>
     <row r="459" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B459" s="3">
         <v>68.7</v>
@@ -9174,7 +9388,7 @@
     </row>
     <row r="460" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B460" s="4">
         <v>54.4</v>
@@ -9190,7 +9404,7 @@
     </row>
     <row r="461" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B461" s="3">
         <v>68.599999999999994</v>
@@ -9206,7 +9420,7 @@
     </row>
     <row r="462" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B462" s="3">
         <v>61.6</v>
@@ -9222,7 +9436,7 @@
     </row>
     <row r="463" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B463" s="3">
         <v>59</v>
@@ -9238,7 +9452,7 @@
     </row>
     <row r="464" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B464" s="3">
         <v>56.5</v>
@@ -9254,7 +9468,7 @@
     </row>
     <row r="465" spans="1:11" ht="147" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B465" s="5">
         <v>78</v>
@@ -9270,7 +9484,7 @@
     </row>
     <row r="466" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B466" s="5">
         <v>79.400000000000006</v>
@@ -9286,7 +9500,7 @@
     </row>
     <row r="467" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B467" s="5">
         <v>74.599999999999994</v>
@@ -9302,7 +9516,7 @@
     </row>
     <row r="468" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B468" s="5">
         <v>79.599999999999994</v>
@@ -9318,7 +9532,7 @@
     </row>
     <row r="469" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B469" s="4">
         <v>51.8</v>
@@ -9334,7 +9548,7 @@
     </row>
     <row r="470" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B470" s="3">
         <v>66.900000000000006</v>
@@ -9350,7 +9564,7 @@
     </row>
     <row r="471" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B471" s="3">
         <v>58.8</v>
@@ -9366,7 +9580,7 @@
     </row>
     <row r="472" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B472" s="3">
         <v>73.8</v>
@@ -9388,12 +9602,464 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>473</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>475</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>478</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>479</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>480</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>464</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>481</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>509</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>535</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/uni.xlsx
+++ b/data/uni.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="541">
   <si>
     <t>Адыгейский гос. ун-т., г. Майкоп</t>
   </si>
@@ -1629,19 +1629,16 @@
     <t>Название ВКонтакте</t>
   </si>
   <si>
-    <t>Заменено</t>
-  </si>
-  <si>
     <t>не в России</t>
   </si>
   <si>
     <t>не нашелся</t>
   </si>
   <si>
-    <t>исправлен</t>
-  </si>
-  <si>
     <t>не просмотрено</t>
+  </si>
+  <si>
+    <t>Балл ЕГЭ</t>
   </si>
 </sst>
 </file>
@@ -2040,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K472"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9604,8 +9601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9615,40 +9612,40 @@
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>536</v>
       </c>
       <c r="B1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>469</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" s="3">
+        <v>62.7</v>
       </c>
       <c r="E2">
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>470</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" s="3">
+        <v>64.099999999999994</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9658,33 +9655,27 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>472</v>
       </c>
       <c r="B5">
         <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>473</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>474</v>
       </c>
@@ -9696,11 +9687,11 @@
       <c r="A8" t="s">
         <v>475</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>476</v>
       </c>
@@ -9712,8 +9703,8 @@
       <c r="A10" t="s">
         <v>477</v>
       </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" s="3">
+        <v>65.2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9732,7 +9723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>480</v>
       </c>
@@ -9744,8 +9735,8 @@
       <c r="A14" t="s">
         <v>464</v>
       </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="B14" s="5">
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9760,83 +9751,110 @@
       <c r="A16" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>64.099999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="5">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="5">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>493</v>
       </c>
@@ -9911,7 +9929,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>508</v>
       </c>
@@ -9920,86 +9938,92 @@
       <c r="A48" t="s">
         <v>509</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="5">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" s="3">
+        <v>64.099999999999994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" s="5">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>524</v>
       </c>

--- a/data/uni.xlsx
+++ b/data/uni.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="542">
   <si>
     <t>Адыгейский гос. ун-т., г. Майкоп</t>
   </si>
@@ -1626,19 +1626,22 @@
     <t>ТЭУ СПбПУ (бывш. СПбГТЭУ, СПбТЭИ)</t>
   </si>
   <si>
-    <t>Название ВКонтакте</t>
-  </si>
-  <si>
-    <t>не в России</t>
-  </si>
-  <si>
-    <t>не нашелся</t>
-  </si>
-  <si>
-    <t>не просмотрено</t>
-  </si>
-  <si>
-    <t>Балл ЕГЭ</t>
+    <t xml:space="preserve">не уверена что это учебное заведение </t>
+  </si>
+  <si>
+    <t>аккредитацию получили в 15 году вроде, баллы нашла за 14</t>
+  </si>
+  <si>
+    <t>нашла только проходные баллы по всем программам и посчитала вручную</t>
+  </si>
+  <si>
+    <t>данные только за 2014 год и только по платникам</t>
+  </si>
+  <si>
+    <t>данные только по платникам</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -1733,7 +1736,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1749,9 +1752,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1789,9 +1792,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1826,7 +1829,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1861,7 +1864,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2037,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K472"/>
   <sheetViews>
-    <sheetView topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="B233" sqref="B233"/>
+    <sheetView topLeftCell="A453" workbookViewId="0">
+      <selection activeCell="A468" sqref="A468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2055,7 +2058,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2071,7 +2074,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2087,7 +2090,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2103,7 +2106,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2119,7 +2122,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2135,7 +2138,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2151,7 +2154,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -2167,7 +2170,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2183,7 +2186,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2199,7 +2202,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -2215,7 +2218,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -2231,7 +2234,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -2247,7 +2250,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -2263,7 +2266,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -2279,7 +2282,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -2295,7 +2298,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -2311,7 +2314,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -2327,7 +2330,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -2343,7 +2346,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -2359,7 +2362,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -2375,7 +2378,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -2407,7 +2410,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -2423,7 +2426,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -2439,7 +2442,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
@@ -2455,7 +2458,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
@@ -2471,7 +2474,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -2487,7 +2490,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
@@ -2503,7 +2506,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -2519,7 +2522,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
@@ -2535,7 +2538,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
@@ -2551,7 +2554,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
@@ -2567,7 +2570,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
@@ -2583,7 +2586,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -2599,7 +2602,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
@@ -2615,7 +2618,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
@@ -2631,7 +2634,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
@@ -2647,7 +2650,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
@@ -2663,7 +2666,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>37</v>
       </c>
@@ -2679,7 +2682,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
@@ -2695,7 +2698,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
@@ -2711,7 +2714,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
@@ -2727,7 +2730,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
@@ -2743,7 +2746,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>42</v>
       </c>
@@ -2759,7 +2762,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>43</v>
       </c>
@@ -2775,7 +2778,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>44</v>
       </c>
@@ -2791,7 +2794,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>45</v>
       </c>
@@ -2807,7 +2810,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>46</v>
       </c>
@@ -2823,7 +2826,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>47</v>
       </c>
@@ -2839,7 +2842,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>48</v>
       </c>
@@ -2855,7 +2858,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>49</v>
       </c>
@@ -2871,7 +2874,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>50</v>
       </c>
@@ -2887,7 +2890,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>51</v>
       </c>
@@ -2903,7 +2906,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>52</v>
       </c>
@@ -2919,7 +2922,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>53</v>
       </c>
@@ -2935,7 +2938,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>54</v>
       </c>
@@ -2951,7 +2954,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>55</v>
       </c>
@@ -2967,7 +2970,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>56</v>
       </c>
@@ -2983,7 +2986,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>57</v>
       </c>
@@ -2999,7 +3002,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>58</v>
       </c>
@@ -3015,7 +3018,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>59</v>
       </c>
@@ -3031,7 +3034,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>60</v>
       </c>
@@ -3047,7 +3050,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>61</v>
       </c>
@@ -3063,7 +3066,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>62</v>
       </c>
@@ -3079,7 +3082,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>63</v>
       </c>
@@ -3095,7 +3098,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>64</v>
       </c>
@@ -3111,7 +3114,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>65</v>
       </c>
@@ -3127,7 +3130,7 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>66</v>
       </c>
@@ -3143,7 +3146,7 @@
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>67</v>
       </c>
@@ -3159,7 +3162,7 @@
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>68</v>
       </c>
@@ -3175,7 +3178,7 @@
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>69</v>
       </c>
@@ -3191,7 +3194,7 @@
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>70</v>
       </c>
@@ -3207,7 +3210,7 @@
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>71</v>
       </c>
@@ -3223,7 +3226,7 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>72</v>
       </c>
@@ -3239,7 +3242,7 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>73</v>
       </c>
@@ -3255,7 +3258,7 @@
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>74</v>
       </c>
@@ -3271,7 +3274,7 @@
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
     </row>
-    <row r="78" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>75</v>
       </c>
@@ -3335,7 +3338,7 @@
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>79</v>
       </c>
@@ -3351,7 +3354,7 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
@@ -3367,7 +3370,7 @@
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>81</v>
       </c>
@@ -3383,7 +3386,7 @@
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>82</v>
       </c>
@@ -3399,7 +3402,7 @@
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>83</v>
       </c>
@@ -3415,7 +3418,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>84</v>
       </c>
@@ -3431,7 +3434,7 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>85</v>
       </c>
@@ -3447,7 +3450,7 @@
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="1:11" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>86</v>
       </c>
@@ -3463,7 +3466,7 @@
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>87</v>
       </c>
@@ -3479,7 +3482,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>88</v>
       </c>
@@ -3495,7 +3498,7 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>89</v>
       </c>
@@ -3511,7 +3514,7 @@
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>90</v>
       </c>
@@ -3527,7 +3530,7 @@
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>91</v>
       </c>
@@ -3543,7 +3546,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>92</v>
       </c>
@@ -3559,7 +3562,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>93</v>
       </c>
@@ -3575,7 +3578,7 @@
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>94</v>
       </c>
@@ -3591,7 +3594,7 @@
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="1:11" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>95</v>
       </c>
@@ -3607,7 +3610,7 @@
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>96</v>
       </c>
@@ -3623,7 +3626,7 @@
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>97</v>
       </c>
@@ -3639,7 +3642,7 @@
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>98</v>
       </c>
@@ -3655,7 +3658,7 @@
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>99</v>
       </c>
@@ -3671,7 +3674,7 @@
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
     </row>
-    <row r="103" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>100</v>
       </c>
@@ -3687,7 +3690,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
     </row>
-    <row r="104" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>101</v>
       </c>
@@ -3703,7 +3706,7 @@
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
     </row>
-    <row r="105" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>102</v>
       </c>
@@ -3719,7 +3722,7 @@
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
     </row>
-    <row r="106" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>103</v>
       </c>
@@ -3735,7 +3738,7 @@
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
     </row>
-    <row r="107" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>104</v>
       </c>
@@ -3751,7 +3754,7 @@
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
     </row>
-    <row r="108" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>105</v>
       </c>
@@ -3767,7 +3770,7 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>106</v>
       </c>
@@ -3783,7 +3786,7 @@
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
     </row>
-    <row r="110" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>107</v>
       </c>
@@ -3799,7 +3802,7 @@
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
     </row>
-    <row r="111" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>108</v>
       </c>
@@ -3815,7 +3818,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
     </row>
-    <row r="112" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>109</v>
       </c>
@@ -3831,7 +3834,7 @@
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
     </row>
-    <row r="113" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>110</v>
       </c>
@@ -3847,7 +3850,7 @@
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
     </row>
-    <row r="114" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>111</v>
       </c>
@@ -3863,7 +3866,7 @@
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
     </row>
-    <row r="115" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>112</v>
       </c>
@@ -3879,7 +3882,7 @@
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
     </row>
-    <row r="116" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>113</v>
       </c>
@@ -3895,7 +3898,7 @@
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
     </row>
-    <row r="117" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>114</v>
       </c>
@@ -3911,7 +3914,7 @@
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
     </row>
-    <row r="118" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>115</v>
       </c>
@@ -3927,7 +3930,7 @@
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
     </row>
-    <row r="119" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>116</v>
       </c>
@@ -3943,7 +3946,7 @@
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
     </row>
-    <row r="120" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>117</v>
       </c>
@@ -3959,7 +3962,7 @@
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
     </row>
-    <row r="121" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>118</v>
       </c>
@@ -3975,7 +3978,7 @@
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
     </row>
-    <row r="122" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>119</v>
       </c>
@@ -3991,7 +3994,7 @@
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
     </row>
-    <row r="123" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>120</v>
       </c>
@@ -4007,7 +4010,7 @@
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
     </row>
-    <row r="124" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>121</v>
       </c>
@@ -4023,7 +4026,7 @@
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
     </row>
-    <row r="125" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>122</v>
       </c>
@@ -4039,7 +4042,7 @@
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
     </row>
-    <row r="126" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>123</v>
       </c>
@@ -4055,7 +4058,7 @@
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
     </row>
-    <row r="127" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>124</v>
       </c>
@@ -4071,7 +4074,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
     </row>
-    <row r="128" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>125</v>
       </c>
@@ -4087,7 +4090,7 @@
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
     </row>
-    <row r="129" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>126</v>
       </c>
@@ -4103,7 +4106,7 @@
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>127</v>
       </c>
@@ -4119,7 +4122,7 @@
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
     </row>
-    <row r="131" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>128</v>
       </c>
@@ -4135,7 +4138,7 @@
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
     </row>
-    <row r="132" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>129</v>
       </c>
@@ -4151,7 +4154,7 @@
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
     </row>
-    <row r="133" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>130</v>
       </c>
@@ -4167,7 +4170,7 @@
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
     </row>
-    <row r="134" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>131</v>
       </c>
@@ -4183,7 +4186,7 @@
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
     </row>
-    <row r="135" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>132</v>
       </c>
@@ -4199,7 +4202,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
     </row>
-    <row r="136" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>133</v>
       </c>
@@ -4215,7 +4218,7 @@
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
     </row>
-    <row r="137" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>134</v>
       </c>
@@ -4231,7 +4234,7 @@
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
     </row>
-    <row r="138" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>135</v>
       </c>
@@ -4247,7 +4250,7 @@
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
     </row>
-    <row r="139" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>136</v>
       </c>
@@ -4263,7 +4266,7 @@
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
     </row>
-    <row r="140" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>137</v>
       </c>
@@ -4279,7 +4282,7 @@
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
     </row>
-    <row r="141" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>138</v>
       </c>
@@ -4295,7 +4298,7 @@
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
     </row>
-    <row r="142" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>139</v>
       </c>
@@ -4311,7 +4314,7 @@
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
     </row>
-    <row r="143" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>140</v>
       </c>
@@ -4327,7 +4330,7 @@
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
     </row>
-    <row r="144" spans="1:11" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>141</v>
       </c>
@@ -4343,7 +4346,7 @@
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
     </row>
-    <row r="145" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>142</v>
       </c>
@@ -4359,7 +4362,7 @@
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
     </row>
-    <row r="146" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>143</v>
       </c>
@@ -4375,7 +4378,7 @@
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
     </row>
-    <row r="147" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>144</v>
       </c>
@@ -4391,7 +4394,7 @@
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
     </row>
-    <row r="148" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>145</v>
       </c>
@@ -4407,7 +4410,7 @@
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
     </row>
-    <row r="149" spans="1:11" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>146</v>
       </c>
@@ -4423,7 +4426,7 @@
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
     </row>
-    <row r="150" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>147</v>
       </c>
@@ -4439,7 +4442,7 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>148</v>
       </c>
@@ -4455,7 +4458,7 @@
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
     </row>
-    <row r="152" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>149</v>
       </c>
@@ -4471,7 +4474,7 @@
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
     </row>
-    <row r="153" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>150</v>
       </c>
@@ -4487,7 +4490,7 @@
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
     </row>
-    <row r="154" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>151</v>
       </c>
@@ -4503,7 +4506,7 @@
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
     </row>
-    <row r="155" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>152</v>
       </c>
@@ -4519,7 +4522,7 @@
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
     </row>
-    <row r="156" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>153</v>
       </c>
@@ -4535,7 +4538,7 @@
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
     </row>
-    <row r="157" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>154</v>
       </c>
@@ -4551,7 +4554,7 @@
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
     </row>
-    <row r="158" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>155</v>
       </c>
@@ -4567,7 +4570,7 @@
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
     </row>
-    <row r="159" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>156</v>
       </c>
@@ -4583,7 +4586,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
     </row>
-    <row r="160" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>157</v>
       </c>
@@ -4599,7 +4602,7 @@
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
     </row>
-    <row r="161" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>158</v>
       </c>
@@ -4615,7 +4618,7 @@
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
     </row>
-    <row r="162" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>159</v>
       </c>
@@ -4631,7 +4634,7 @@
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
     </row>
-    <row r="163" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>160</v>
       </c>
@@ -4647,7 +4650,7 @@
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
     </row>
-    <row r="164" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>161</v>
       </c>
@@ -4663,7 +4666,7 @@
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
     </row>
-    <row r="165" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>162</v>
       </c>
@@ -4679,7 +4682,7 @@
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
     </row>
-    <row r="166" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>163</v>
       </c>
@@ -4695,7 +4698,7 @@
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
     </row>
-    <row r="167" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>164</v>
       </c>
@@ -4711,7 +4714,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
     </row>
-    <row r="168" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>165</v>
       </c>
@@ -4727,7 +4730,7 @@
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
     </row>
-    <row r="169" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>166</v>
       </c>
@@ -4743,7 +4746,7 @@
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
     </row>
-    <row r="170" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>167</v>
       </c>
@@ -4759,7 +4762,7 @@
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
     </row>
-    <row r="171" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>168</v>
       </c>
@@ -4775,7 +4778,7 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>169</v>
       </c>
@@ -4791,7 +4794,7 @@
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
     </row>
-    <row r="173" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>170</v>
       </c>
@@ -4807,7 +4810,7 @@
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
     </row>
-    <row r="174" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>171</v>
       </c>
@@ -4823,7 +4826,7 @@
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
     </row>
-    <row r="175" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>172</v>
       </c>
@@ -4839,7 +4842,7 @@
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
     </row>
-    <row r="176" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>173</v>
       </c>
@@ -4855,7 +4858,7 @@
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
     </row>
-    <row r="177" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>174</v>
       </c>
@@ -4871,7 +4874,7 @@
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
     </row>
-    <row r="178" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>175</v>
       </c>
@@ -4887,7 +4890,7 @@
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
     </row>
-    <row r="179" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>176</v>
       </c>
@@ -4903,7 +4906,7 @@
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
     </row>
-    <row r="180" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>177</v>
       </c>
@@ -4919,7 +4922,7 @@
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
     </row>
-    <row r="181" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>178</v>
       </c>
@@ -4935,7 +4938,7 @@
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
     </row>
-    <row r="182" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>179</v>
       </c>
@@ -4951,7 +4954,7 @@
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
     </row>
-    <row r="183" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>180</v>
       </c>
@@ -4967,7 +4970,7 @@
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
     </row>
-    <row r="184" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>181</v>
       </c>
@@ -4983,7 +4986,7 @@
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
     </row>
-    <row r="185" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>182</v>
       </c>
@@ -4999,7 +5002,7 @@
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
     </row>
-    <row r="186" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>183</v>
       </c>
@@ -5015,7 +5018,7 @@
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
     </row>
-    <row r="187" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>184</v>
       </c>
@@ -5031,7 +5034,7 @@
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
     </row>
-    <row r="188" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>185</v>
       </c>
@@ -5047,7 +5050,7 @@
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
     </row>
-    <row r="189" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>186</v>
       </c>
@@ -5063,7 +5066,7 @@
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
     </row>
-    <row r="190" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>187</v>
       </c>
@@ -5079,7 +5082,7 @@
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
     </row>
-    <row r="191" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>188</v>
       </c>
@@ -5095,7 +5098,7 @@
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
     </row>
-    <row r="192" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>189</v>
       </c>
@@ -5111,7 +5114,7 @@
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
     </row>
-    <row r="193" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>190</v>
       </c>
@@ -5127,7 +5130,7 @@
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
     </row>
-    <row r="194" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>191</v>
       </c>
@@ -5143,7 +5146,7 @@
       <c r="J194" s="3"/>
       <c r="K194" s="3"/>
     </row>
-    <row r="195" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>192</v>
       </c>
@@ -5159,7 +5162,7 @@
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
     </row>
-    <row r="196" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>193</v>
       </c>
@@ -5175,7 +5178,7 @@
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
     </row>
-    <row r="197" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>194</v>
       </c>
@@ -5191,7 +5194,7 @@
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
     </row>
-    <row r="198" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>195</v>
       </c>
@@ -5207,7 +5210,7 @@
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
     </row>
-    <row r="199" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>196</v>
       </c>
@@ -5223,7 +5226,7 @@
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
     </row>
-    <row r="200" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>197</v>
       </c>
@@ -5239,7 +5242,7 @@
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
     </row>
-    <row r="201" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>198</v>
       </c>
@@ -5255,7 +5258,7 @@
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
     </row>
-    <row r="202" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>199</v>
       </c>
@@ -5271,7 +5274,7 @@
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
     </row>
-    <row r="203" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>200</v>
       </c>
@@ -5287,7 +5290,7 @@
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
     </row>
-    <row r="204" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>201</v>
       </c>
@@ -5303,7 +5306,7 @@
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
     </row>
-    <row r="205" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>202</v>
       </c>
@@ -5319,7 +5322,7 @@
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
     </row>
-    <row r="206" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>203</v>
       </c>
@@ -5335,7 +5338,7 @@
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
     </row>
-    <row r="207" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>204</v>
       </c>
@@ -5351,7 +5354,7 @@
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
     </row>
-    <row r="208" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>205</v>
       </c>
@@ -5367,7 +5370,7 @@
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
     </row>
-    <row r="209" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>206</v>
       </c>
@@ -5383,7 +5386,7 @@
       <c r="J209" s="3"/>
       <c r="K209" s="3"/>
     </row>
-    <row r="210" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>207</v>
       </c>
@@ -5399,7 +5402,7 @@
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
     </row>
-    <row r="211" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>208</v>
       </c>
@@ -5415,7 +5418,7 @@
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
     </row>
-    <row r="212" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>209</v>
       </c>
@@ -5431,7 +5434,7 @@
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
     </row>
-    <row r="213" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>210</v>
       </c>
@@ -5447,7 +5450,7 @@
       <c r="J213" s="3"/>
       <c r="K213" s="3"/>
     </row>
-    <row r="214" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>211</v>
       </c>
@@ -5463,7 +5466,7 @@
       <c r="J214" s="3"/>
       <c r="K214" s="3"/>
     </row>
-    <row r="215" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>212</v>
       </c>
@@ -5479,7 +5482,7 @@
       <c r="J215" s="3"/>
       <c r="K215" s="3"/>
     </row>
-    <row r="216" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>213</v>
       </c>
@@ -5495,7 +5498,7 @@
       <c r="J216" s="3"/>
       <c r="K216" s="3"/>
     </row>
-    <row r="217" spans="1:11" ht="147" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>214</v>
       </c>
@@ -5511,7 +5514,7 @@
       <c r="J217" s="3"/>
       <c r="K217" s="3"/>
     </row>
-    <row r="218" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>215</v>
       </c>
@@ -5527,7 +5530,7 @@
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
     </row>
-    <row r="219" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>216</v>
       </c>
@@ -5559,7 +5562,7 @@
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
     </row>
-    <row r="221" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>217</v>
       </c>
@@ -5575,7 +5578,7 @@
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
     </row>
-    <row r="222" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>218</v>
       </c>
@@ -5591,7 +5594,7 @@
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
     </row>
-    <row r="223" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>219</v>
       </c>
@@ -5607,7 +5610,7 @@
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
     </row>
-    <row r="224" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>220</v>
       </c>
@@ -5623,7 +5626,7 @@
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
     </row>
-    <row r="225" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>221</v>
       </c>
@@ -5639,7 +5642,7 @@
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
     </row>
-    <row r="226" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>222</v>
       </c>
@@ -5655,7 +5658,7 @@
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
     </row>
-    <row r="227" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>223</v>
       </c>
@@ -5671,7 +5674,7 @@
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
     </row>
-    <row r="228" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>224</v>
       </c>
@@ -5687,7 +5690,7 @@
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
     </row>
-    <row r="229" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>225</v>
       </c>
@@ -5703,7 +5706,7 @@
       <c r="J229" s="3"/>
       <c r="K229" s="3"/>
     </row>
-    <row r="230" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>226</v>
       </c>
@@ -5719,7 +5722,7 @@
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
     </row>
-    <row r="231" spans="1:11" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>227</v>
       </c>
@@ -5783,7 +5786,7 @@
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
     </row>
-    <row r="235" spans="1:11" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>230</v>
       </c>
@@ -5799,7 +5802,7 @@
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
     </row>
-    <row r="236" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>231</v>
       </c>
@@ -5815,7 +5818,7 @@
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
     </row>
-    <row r="237" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>232</v>
       </c>
@@ -5831,7 +5834,7 @@
       <c r="J237" s="3"/>
       <c r="K237" s="3"/>
     </row>
-    <row r="238" spans="1:11" ht="192" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>233</v>
       </c>
@@ -5847,7 +5850,7 @@
       <c r="J238" s="3"/>
       <c r="K238" s="3"/>
     </row>
-    <row r="239" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>234</v>
       </c>
@@ -5863,7 +5866,7 @@
       <c r="J239" s="3"/>
       <c r="K239" s="3"/>
     </row>
-    <row r="240" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>235</v>
       </c>
@@ -5879,7 +5882,7 @@
       <c r="J240" s="3"/>
       <c r="K240" s="3"/>
     </row>
-    <row r="241" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>236</v>
       </c>
@@ -5895,7 +5898,7 @@
       <c r="J241" s="3"/>
       <c r="K241" s="3"/>
     </row>
-    <row r="242" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>237</v>
       </c>
@@ -5911,7 +5914,7 @@
       <c r="J242" s="3"/>
       <c r="K242" s="3"/>
     </row>
-    <row r="243" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>238</v>
       </c>
@@ -5927,7 +5930,7 @@
       <c r="J243" s="3"/>
       <c r="K243" s="3"/>
     </row>
-    <row r="244" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>239</v>
       </c>
@@ -5943,7 +5946,7 @@
       <c r="J244" s="3"/>
       <c r="K244" s="3"/>
     </row>
-    <row r="245" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>240</v>
       </c>
@@ -5959,7 +5962,7 @@
       <c r="J245" s="3"/>
       <c r="K245" s="3"/>
     </row>
-    <row r="246" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>241</v>
       </c>
@@ -5975,7 +5978,7 @@
       <c r="J246" s="3"/>
       <c r="K246" s="3"/>
     </row>
-    <row r="247" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>242</v>
       </c>
@@ -5991,7 +5994,7 @@
       <c r="J247" s="3"/>
       <c r="K247" s="3"/>
     </row>
-    <row r="248" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>243</v>
       </c>
@@ -6007,7 +6010,7 @@
       <c r="J248" s="3"/>
       <c r="K248" s="3"/>
     </row>
-    <row r="249" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>244</v>
       </c>
@@ -6023,7 +6026,7 @@
       <c r="J249" s="3"/>
       <c r="K249" s="3"/>
     </row>
-    <row r="250" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>245</v>
       </c>
@@ -6039,7 +6042,7 @@
       <c r="J250" s="3"/>
       <c r="K250" s="3"/>
     </row>
-    <row r="251" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>246</v>
       </c>
@@ -6055,7 +6058,7 @@
       <c r="J251" s="3"/>
       <c r="K251" s="3"/>
     </row>
-    <row r="252" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>247</v>
       </c>
@@ -6071,7 +6074,7 @@
       <c r="J252" s="3"/>
       <c r="K252" s="3"/>
     </row>
-    <row r="253" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>248</v>
       </c>
@@ -6087,7 +6090,7 @@
       <c r="J253" s="3"/>
       <c r="K253" s="3"/>
     </row>
-    <row r="254" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>249</v>
       </c>
@@ -6103,7 +6106,7 @@
       <c r="J254" s="3"/>
       <c r="K254" s="3"/>
     </row>
-    <row r="255" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>250</v>
       </c>
@@ -6119,7 +6122,7 @@
       <c r="J255" s="3"/>
       <c r="K255" s="3"/>
     </row>
-    <row r="256" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>251</v>
       </c>
@@ -6135,7 +6138,7 @@
       <c r="J256" s="3"/>
       <c r="K256" s="3"/>
     </row>
-    <row r="257" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>252</v>
       </c>
@@ -6151,7 +6154,7 @@
       <c r="J257" s="3"/>
       <c r="K257" s="3"/>
     </row>
-    <row r="258" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>253</v>
       </c>
@@ -6167,7 +6170,7 @@
       <c r="J258" s="3"/>
       <c r="K258" s="3"/>
     </row>
-    <row r="259" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>254</v>
       </c>
@@ -6183,7 +6186,7 @@
       <c r="J259" s="3"/>
       <c r="K259" s="3"/>
     </row>
-    <row r="260" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>255</v>
       </c>
@@ -6199,7 +6202,7 @@
       <c r="J260" s="3"/>
       <c r="K260" s="3"/>
     </row>
-    <row r="261" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>256</v>
       </c>
@@ -6215,7 +6218,7 @@
       <c r="J261" s="3"/>
       <c r="K261" s="3"/>
     </row>
-    <row r="262" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>257</v>
       </c>
@@ -6231,7 +6234,7 @@
       <c r="J262" s="3"/>
       <c r="K262" s="3"/>
     </row>
-    <row r="263" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>258</v>
       </c>
@@ -6247,7 +6250,7 @@
       <c r="J263" s="3"/>
       <c r="K263" s="3"/>
     </row>
-    <row r="264" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>259</v>
       </c>
@@ -6263,7 +6266,7 @@
       <c r="J264" s="3"/>
       <c r="K264" s="3"/>
     </row>
-    <row r="265" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>260</v>
       </c>
@@ -6279,7 +6282,7 @@
       <c r="J265" s="3"/>
       <c r="K265" s="3"/>
     </row>
-    <row r="266" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>261</v>
       </c>
@@ -6295,7 +6298,7 @@
       <c r="J266" s="3"/>
       <c r="K266" s="3"/>
     </row>
-    <row r="267" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>262</v>
       </c>
@@ -6311,7 +6314,7 @@
       <c r="J267" s="3"/>
       <c r="K267" s="3"/>
     </row>
-    <row r="268" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>263</v>
       </c>
@@ -6327,7 +6330,7 @@
       <c r="J268" s="3"/>
       <c r="K268" s="3"/>
     </row>
-    <row r="269" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>264</v>
       </c>
@@ -6343,7 +6346,7 @@
       <c r="J269" s="3"/>
       <c r="K269" s="3"/>
     </row>
-    <row r="270" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>265</v>
       </c>
@@ -6359,7 +6362,7 @@
       <c r="J270" s="3"/>
       <c r="K270" s="3"/>
     </row>
-    <row r="271" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>266</v>
       </c>
@@ -6375,7 +6378,7 @@
       <c r="J271" s="3"/>
       <c r="K271" s="3"/>
     </row>
-    <row r="272" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>267</v>
       </c>
@@ -6391,7 +6394,7 @@
       <c r="J272" s="3"/>
       <c r="K272" s="3"/>
     </row>
-    <row r="273" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>268</v>
       </c>
@@ -6407,7 +6410,7 @@
       <c r="J273" s="3"/>
       <c r="K273" s="3"/>
     </row>
-    <row r="274" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>269</v>
       </c>
@@ -6423,7 +6426,7 @@
       <c r="J274" s="3"/>
       <c r="K274" s="3"/>
     </row>
-    <row r="275" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>270</v>
       </c>
@@ -6439,7 +6442,7 @@
       <c r="J275" s="3"/>
       <c r="K275" s="3"/>
     </row>
-    <row r="276" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>271</v>
       </c>
@@ -6455,7 +6458,7 @@
       <c r="J276" s="3"/>
       <c r="K276" s="3"/>
     </row>
-    <row r="277" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>272</v>
       </c>
@@ -6471,7 +6474,7 @@
       <c r="J277" s="3"/>
       <c r="K277" s="3"/>
     </row>
-    <row r="278" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>273</v>
       </c>
@@ -6487,7 +6490,7 @@
       <c r="J278" s="3"/>
       <c r="K278" s="3"/>
     </row>
-    <row r="279" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>274</v>
       </c>
@@ -6503,7 +6506,7 @@
       <c r="J279" s="3"/>
       <c r="K279" s="3"/>
     </row>
-    <row r="280" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>275</v>
       </c>
@@ -6519,7 +6522,7 @@
       <c r="J280" s="3"/>
       <c r="K280" s="3"/>
     </row>
-    <row r="281" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>276</v>
       </c>
@@ -6535,7 +6538,7 @@
       <c r="J281" s="3"/>
       <c r="K281" s="3"/>
     </row>
-    <row r="282" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>277</v>
       </c>
@@ -6551,7 +6554,7 @@
       <c r="J282" s="3"/>
       <c r="K282" s="3"/>
     </row>
-    <row r="283" spans="1:11" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>278</v>
       </c>
@@ -6567,7 +6570,7 @@
       <c r="J283" s="3"/>
       <c r="K283" s="3"/>
     </row>
-    <row r="284" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>279</v>
       </c>
@@ -6583,7 +6586,7 @@
       <c r="J284" s="3"/>
       <c r="K284" s="3"/>
     </row>
-    <row r="285" spans="1:11" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>280</v>
       </c>
@@ -6599,7 +6602,7 @@
       <c r="J285" s="3"/>
       <c r="K285" s="3"/>
     </row>
-    <row r="286" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>281</v>
       </c>
@@ -6615,7 +6618,7 @@
       <c r="J286" s="3"/>
       <c r="K286" s="3"/>
     </row>
-    <row r="287" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>282</v>
       </c>
@@ -6631,7 +6634,7 @@
       <c r="J287" s="3"/>
       <c r="K287" s="3"/>
     </row>
-    <row r="288" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>283</v>
       </c>
@@ -6647,7 +6650,7 @@
       <c r="J288" s="3"/>
       <c r="K288" s="3"/>
     </row>
-    <row r="289" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>284</v>
       </c>
@@ -6679,7 +6682,7 @@
       <c r="J290" s="3"/>
       <c r="K290" s="3"/>
     </row>
-    <row r="291" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>285</v>
       </c>
@@ -6695,7 +6698,7 @@
       <c r="J291" s="3"/>
       <c r="K291" s="3"/>
     </row>
-    <row r="292" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>286</v>
       </c>
@@ -6711,7 +6714,7 @@
       <c r="J292" s="3"/>
       <c r="K292" s="3"/>
     </row>
-    <row r="293" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>287</v>
       </c>
@@ -6727,7 +6730,7 @@
       <c r="J293" s="3"/>
       <c r="K293" s="3"/>
     </row>
-    <row r="294" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>288</v>
       </c>
@@ -6743,7 +6746,7 @@
       <c r="J294" s="3"/>
       <c r="K294" s="3"/>
     </row>
-    <row r="295" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>289</v>
       </c>
@@ -6759,7 +6762,7 @@
       <c r="J295" s="3"/>
       <c r="K295" s="3"/>
     </row>
-    <row r="296" spans="1:11" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>290</v>
       </c>
@@ -6775,7 +6778,7 @@
       <c r="J296" s="3"/>
       <c r="K296" s="3"/>
     </row>
-    <row r="297" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>291</v>
       </c>
@@ -6791,7 +6794,7 @@
       <c r="J297" s="3"/>
       <c r="K297" s="3"/>
     </row>
-    <row r="298" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>292</v>
       </c>
@@ -6807,7 +6810,7 @@
       <c r="J298" s="3"/>
       <c r="K298" s="3"/>
     </row>
-    <row r="299" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>293</v>
       </c>
@@ -6823,7 +6826,7 @@
       <c r="J299" s="3"/>
       <c r="K299" s="3"/>
     </row>
-    <row r="300" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>294</v>
       </c>
@@ -6839,7 +6842,7 @@
       <c r="J300" s="3"/>
       <c r="K300" s="3"/>
     </row>
-    <row r="301" spans="1:11" ht="214.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>295</v>
       </c>
@@ -6855,7 +6858,7 @@
       <c r="J301" s="3"/>
       <c r="K301" s="3"/>
     </row>
-    <row r="302" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>296</v>
       </c>
@@ -6871,7 +6874,7 @@
       <c r="J302" s="3"/>
       <c r="K302" s="3"/>
     </row>
-    <row r="303" spans="1:11" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>297</v>
       </c>
@@ -6887,7 +6890,7 @@
       <c r="J303" s="3"/>
       <c r="K303" s="3"/>
     </row>
-    <row r="304" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>298</v>
       </c>
@@ -6951,7 +6954,7 @@
       <c r="J307" s="3"/>
       <c r="K307" s="3"/>
     </row>
-    <row r="308" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>301</v>
       </c>
@@ -6967,7 +6970,7 @@
       <c r="J308" s="3"/>
       <c r="K308" s="3"/>
     </row>
-    <row r="309" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>302</v>
       </c>
@@ -6983,7 +6986,7 @@
       <c r="J309" s="3"/>
       <c r="K309" s="3"/>
     </row>
-    <row r="310" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>303</v>
       </c>
@@ -6999,7 +7002,7 @@
       <c r="J310" s="3"/>
       <c r="K310" s="3"/>
     </row>
-    <row r="311" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>304</v>
       </c>
@@ -7015,7 +7018,7 @@
       <c r="J311" s="3"/>
       <c r="K311" s="3"/>
     </row>
-    <row r="312" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>305</v>
       </c>
@@ -7031,7 +7034,7 @@
       <c r="J312" s="3"/>
       <c r="K312" s="3"/>
     </row>
-    <row r="313" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>306</v>
       </c>
@@ -7047,7 +7050,7 @@
       <c r="J313" s="3"/>
       <c r="K313" s="3"/>
     </row>
-    <row r="314" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>307</v>
       </c>
@@ -7063,7 +7066,7 @@
       <c r="J314" s="3"/>
       <c r="K314" s="3"/>
     </row>
-    <row r="315" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>308</v>
       </c>
@@ -7079,7 +7082,7 @@
       <c r="J315" s="3"/>
       <c r="K315" s="3"/>
     </row>
-    <row r="316" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>309</v>
       </c>
@@ -7095,7 +7098,7 @@
       <c r="J316" s="3"/>
       <c r="K316" s="3"/>
     </row>
-    <row r="317" spans="1:11" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>310</v>
       </c>
@@ -7111,7 +7114,7 @@
       <c r="J317" s="3"/>
       <c r="K317" s="3"/>
     </row>
-    <row r="318" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>311</v>
       </c>
@@ -7127,7 +7130,7 @@
       <c r="J318" s="3"/>
       <c r="K318" s="3"/>
     </row>
-    <row r="319" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>312</v>
       </c>
@@ -7143,7 +7146,7 @@
       <c r="J319" s="3"/>
       <c r="K319" s="3"/>
     </row>
-    <row r="320" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>313</v>
       </c>
@@ -7159,7 +7162,7 @@
       <c r="J320" s="3"/>
       <c r="K320" s="3"/>
     </row>
-    <row r="321" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>314</v>
       </c>
@@ -7175,7 +7178,7 @@
       <c r="J321" s="3"/>
       <c r="K321" s="3"/>
     </row>
-    <row r="322" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>315</v>
       </c>
@@ -7191,7 +7194,7 @@
       <c r="J322" s="3"/>
       <c r="K322" s="3"/>
     </row>
-    <row r="323" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>316</v>
       </c>
@@ -7207,7 +7210,7 @@
       <c r="J323" s="3"/>
       <c r="K323" s="3"/>
     </row>
-    <row r="324" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>317</v>
       </c>
@@ -7223,7 +7226,7 @@
       <c r="J324" s="3"/>
       <c r="K324" s="3"/>
     </row>
-    <row r="325" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>318</v>
       </c>
@@ -7239,7 +7242,7 @@
       <c r="J325" s="3"/>
       <c r="K325" s="3"/>
     </row>
-    <row r="326" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>319</v>
       </c>
@@ -7255,7 +7258,7 @@
       <c r="J326" s="3"/>
       <c r="K326" s="3"/>
     </row>
-    <row r="327" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>320</v>
       </c>
@@ -7271,7 +7274,7 @@
       <c r="J327" s="3"/>
       <c r="K327" s="3"/>
     </row>
-    <row r="328" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>321</v>
       </c>
@@ -7287,7 +7290,7 @@
       <c r="J328" s="3"/>
       <c r="K328" s="3"/>
     </row>
-    <row r="329" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>322</v>
       </c>
@@ -7303,7 +7306,7 @@
       <c r="J329" s="3"/>
       <c r="K329" s="3"/>
     </row>
-    <row r="330" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>323</v>
       </c>
@@ -7319,7 +7322,7 @@
       <c r="J330" s="3"/>
       <c r="K330" s="3"/>
     </row>
-    <row r="331" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>324</v>
       </c>
@@ -7335,7 +7338,7 @@
       <c r="J331" s="3"/>
       <c r="K331" s="3"/>
     </row>
-    <row r="332" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>325</v>
       </c>
@@ -7351,7 +7354,7 @@
       <c r="J332" s="3"/>
       <c r="K332" s="3"/>
     </row>
-    <row r="333" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>326</v>
       </c>
@@ -7367,7 +7370,7 @@
       <c r="J333" s="3"/>
       <c r="K333" s="3"/>
     </row>
-    <row r="334" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>327</v>
       </c>
@@ -7383,7 +7386,7 @@
       <c r="J334" s="3"/>
       <c r="K334" s="3"/>
     </row>
-    <row r="335" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>328</v>
       </c>
@@ -7399,7 +7402,7 @@
       <c r="J335" s="3"/>
       <c r="K335" s="3"/>
     </row>
-    <row r="336" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>329</v>
       </c>
@@ -7415,7 +7418,7 @@
       <c r="J336" s="3"/>
       <c r="K336" s="3"/>
     </row>
-    <row r="337" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>330</v>
       </c>
@@ -7431,7 +7434,7 @@
       <c r="J337" s="3"/>
       <c r="K337" s="3"/>
     </row>
-    <row r="338" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>331</v>
       </c>
@@ -7447,7 +7450,7 @@
       <c r="J338" s="3"/>
       <c r="K338" s="3"/>
     </row>
-    <row r="339" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>332</v>
       </c>
@@ -7463,7 +7466,7 @@
       <c r="J339" s="3"/>
       <c r="K339" s="3"/>
     </row>
-    <row r="340" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>333</v>
       </c>
@@ -7479,7 +7482,7 @@
       <c r="J340" s="3"/>
       <c r="K340" s="3"/>
     </row>
-    <row r="341" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>334</v>
       </c>
@@ -7495,7 +7498,7 @@
       <c r="J341" s="3"/>
       <c r="K341" s="3"/>
     </row>
-    <row r="342" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>335</v>
       </c>
@@ -7527,7 +7530,7 @@
       <c r="J343" s="3"/>
       <c r="K343" s="3"/>
     </row>
-    <row r="344" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>336</v>
       </c>
@@ -7543,7 +7546,7 @@
       <c r="J344" s="3"/>
       <c r="K344" s="3"/>
     </row>
-    <row r="345" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>337</v>
       </c>
@@ -7623,7 +7626,7 @@
       <c r="J349" s="3"/>
       <c r="K349" s="3"/>
     </row>
-    <row r="350" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>340</v>
       </c>
@@ -7687,7 +7690,7 @@
       <c r="J353" s="3"/>
       <c r="K353" s="3"/>
     </row>
-    <row r="354" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>342</v>
       </c>
@@ -7703,7 +7706,7 @@
       <c r="J354" s="3"/>
       <c r="K354" s="3"/>
     </row>
-    <row r="355" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>343</v>
       </c>
@@ -7767,7 +7770,7 @@
       <c r="J358" s="3"/>
       <c r="K358" s="3"/>
     </row>
-    <row r="359" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>460</v>
       </c>
@@ -7783,7 +7786,7 @@
       <c r="J359" s="3"/>
       <c r="K359" s="3"/>
     </row>
-    <row r="360" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>346</v>
       </c>
@@ -7799,7 +7802,7 @@
       <c r="J360" s="3"/>
       <c r="K360" s="3"/>
     </row>
-    <row r="361" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>347</v>
       </c>
@@ -7815,7 +7818,7 @@
       <c r="J361" s="3"/>
       <c r="K361" s="3"/>
     </row>
-    <row r="362" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>348</v>
       </c>
@@ -7831,7 +7834,7 @@
       <c r="J362" s="3"/>
       <c r="K362" s="3"/>
     </row>
-    <row r="363" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>349</v>
       </c>
@@ -7847,7 +7850,7 @@
       <c r="J363" s="3"/>
       <c r="K363" s="3"/>
     </row>
-    <row r="364" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>350</v>
       </c>
@@ -7863,7 +7866,7 @@
       <c r="J364" s="3"/>
       <c r="K364" s="3"/>
     </row>
-    <row r="365" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>351</v>
       </c>
@@ -7879,7 +7882,7 @@
       <c r="J365" s="3"/>
       <c r="K365" s="3"/>
     </row>
-    <row r="366" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>352</v>
       </c>
@@ -7895,7 +7898,7 @@
       <c r="J366" s="3"/>
       <c r="K366" s="3"/>
     </row>
-    <row r="367" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>353</v>
       </c>
@@ -7911,7 +7914,7 @@
       <c r="J367" s="3"/>
       <c r="K367" s="3"/>
     </row>
-    <row r="368" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>354</v>
       </c>
@@ -7927,7 +7930,7 @@
       <c r="J368" s="3"/>
       <c r="K368" s="3"/>
     </row>
-    <row r="369" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>355</v>
       </c>
@@ -7943,7 +7946,7 @@
       <c r="J369" s="3"/>
       <c r="K369" s="3"/>
     </row>
-    <row r="370" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>356</v>
       </c>
@@ -7959,7 +7962,7 @@
       <c r="J370" s="3"/>
       <c r="K370" s="3"/>
     </row>
-    <row r="371" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>357</v>
       </c>
@@ -7975,7 +7978,7 @@
       <c r="J371" s="3"/>
       <c r="K371" s="3"/>
     </row>
-    <row r="372" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>358</v>
       </c>
@@ -7991,7 +7994,7 @@
       <c r="J372" s="3"/>
       <c r="K372" s="3"/>
     </row>
-    <row r="373" spans="1:11" ht="147" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>359</v>
       </c>
@@ -8007,7 +8010,7 @@
       <c r="J373" s="3"/>
       <c r="K373" s="3"/>
     </row>
-    <row r="374" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>360</v>
       </c>
@@ -8023,7 +8026,7 @@
       <c r="J374" s="3"/>
       <c r="K374" s="3"/>
     </row>
-    <row r="375" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>361</v>
       </c>
@@ -8039,7 +8042,7 @@
       <c r="J375" s="3"/>
       <c r="K375" s="3"/>
     </row>
-    <row r="376" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>362</v>
       </c>
@@ -8055,7 +8058,7 @@
       <c r="J376" s="3"/>
       <c r="K376" s="3"/>
     </row>
-    <row r="377" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>363</v>
       </c>
@@ -8071,7 +8074,7 @@
       <c r="J377" s="3"/>
       <c r="K377" s="3"/>
     </row>
-    <row r="378" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>364</v>
       </c>
@@ -8087,7 +8090,7 @@
       <c r="J378" s="3"/>
       <c r="K378" s="3"/>
     </row>
-    <row r="379" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>365</v>
       </c>
@@ -8103,7 +8106,7 @@
       <c r="J379" s="3"/>
       <c r="K379" s="3"/>
     </row>
-    <row r="380" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>366</v>
       </c>
@@ -8119,7 +8122,7 @@
       <c r="J380" s="3"/>
       <c r="K380" s="3"/>
     </row>
-    <row r="381" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>367</v>
       </c>
@@ -8135,7 +8138,7 @@
       <c r="J381" s="3"/>
       <c r="K381" s="3"/>
     </row>
-    <row r="382" spans="1:11" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>368</v>
       </c>
@@ -8151,7 +8154,7 @@
       <c r="J382" s="3"/>
       <c r="K382" s="3"/>
     </row>
-    <row r="383" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>369</v>
       </c>
@@ -8167,7 +8170,7 @@
       <c r="J383" s="3"/>
       <c r="K383" s="3"/>
     </row>
-    <row r="384" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>370</v>
       </c>
@@ -8183,7 +8186,7 @@
       <c r="J384" s="3"/>
       <c r="K384" s="3"/>
     </row>
-    <row r="385" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>371</v>
       </c>
@@ -8199,7 +8202,7 @@
       <c r="J385" s="3"/>
       <c r="K385" s="3"/>
     </row>
-    <row r="386" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>372</v>
       </c>
@@ -8215,7 +8218,7 @@
       <c r="J386" s="3"/>
       <c r="K386" s="3"/>
     </row>
-    <row r="387" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>373</v>
       </c>
@@ -8231,7 +8234,7 @@
       <c r="J387" s="3"/>
       <c r="K387" s="3"/>
     </row>
-    <row r="388" spans="1:11" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>374</v>
       </c>
@@ -8247,7 +8250,7 @@
       <c r="J388" s="3"/>
       <c r="K388" s="3"/>
     </row>
-    <row r="389" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>375</v>
       </c>
@@ -8263,7 +8266,7 @@
       <c r="J389" s="3"/>
       <c r="K389" s="3"/>
     </row>
-    <row r="390" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>376</v>
       </c>
@@ -8279,7 +8282,7 @@
       <c r="J390" s="3"/>
       <c r="K390" s="3"/>
     </row>
-    <row r="391" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>377</v>
       </c>
@@ -8295,7 +8298,7 @@
       <c r="J391" s="3"/>
       <c r="K391" s="3"/>
     </row>
-    <row r="392" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>378</v>
       </c>
@@ -8311,7 +8314,7 @@
       <c r="J392" s="3"/>
       <c r="K392" s="3"/>
     </row>
-    <row r="393" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>379</v>
       </c>
@@ -8327,7 +8330,7 @@
       <c r="J393" s="3"/>
       <c r="K393" s="3"/>
     </row>
-    <row r="394" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>380</v>
       </c>
@@ -8343,7 +8346,7 @@
       <c r="J394" s="3"/>
       <c r="K394" s="3"/>
     </row>
-    <row r="395" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>381</v>
       </c>
@@ -8359,7 +8362,7 @@
       <c r="J395" s="3"/>
       <c r="K395" s="3"/>
     </row>
-    <row r="396" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>382</v>
       </c>
@@ -8375,7 +8378,7 @@
       <c r="J396" s="3"/>
       <c r="K396" s="3"/>
     </row>
-    <row r="397" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>383</v>
       </c>
@@ -8391,7 +8394,7 @@
       <c r="J397" s="3"/>
       <c r="K397" s="3"/>
     </row>
-    <row r="398" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
         <v>384</v>
       </c>
@@ -8407,7 +8410,7 @@
       <c r="J398" s="3"/>
       <c r="K398" s="3"/>
     </row>
-    <row r="399" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
         <v>385</v>
       </c>
@@ -8423,7 +8426,7 @@
       <c r="J399" s="3"/>
       <c r="K399" s="3"/>
     </row>
-    <row r="400" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
         <v>386</v>
       </c>
@@ -8439,7 +8442,7 @@
       <c r="J400" s="3"/>
       <c r="K400" s="3"/>
     </row>
-    <row r="401" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
         <v>387</v>
       </c>
@@ -8455,7 +8458,7 @@
       <c r="J401" s="3"/>
       <c r="K401" s="3"/>
     </row>
-    <row r="402" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
         <v>388</v>
       </c>
@@ -8471,7 +8474,7 @@
       <c r="J402" s="3"/>
       <c r="K402" s="3"/>
     </row>
-    <row r="403" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
         <v>389</v>
       </c>
@@ -8487,7 +8490,7 @@
       <c r="J403" s="3"/>
       <c r="K403" s="3"/>
     </row>
-    <row r="404" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
         <v>390</v>
       </c>
@@ -8503,7 +8506,7 @@
       <c r="J404" s="3"/>
       <c r="K404" s="3"/>
     </row>
-    <row r="405" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
         <v>391</v>
       </c>
@@ -8519,7 +8522,7 @@
       <c r="J405" s="3"/>
       <c r="K405" s="3"/>
     </row>
-    <row r="406" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
         <v>392</v>
       </c>
@@ -8535,7 +8538,7 @@
       <c r="J406" s="3"/>
       <c r="K406" s="3"/>
     </row>
-    <row r="407" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
         <v>393</v>
       </c>
@@ -8551,7 +8554,7 @@
       <c r="J407" s="3"/>
       <c r="K407" s="3"/>
     </row>
-    <row r="408" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
         <v>394</v>
       </c>
@@ -8567,7 +8570,7 @@
       <c r="J408" s="3"/>
       <c r="K408" s="3"/>
     </row>
-    <row r="409" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
         <v>395</v>
       </c>
@@ -8583,7 +8586,7 @@
       <c r="J409" s="3"/>
       <c r="K409" s="3"/>
     </row>
-    <row r="410" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
         <v>396</v>
       </c>
@@ -8599,7 +8602,7 @@
       <c r="J410" s="3"/>
       <c r="K410" s="3"/>
     </row>
-    <row r="411" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
         <v>397</v>
       </c>
@@ -8615,7 +8618,7 @@
       <c r="J411" s="3"/>
       <c r="K411" s="3"/>
     </row>
-    <row r="412" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
         <v>398</v>
       </c>
@@ -8631,7 +8634,7 @@
       <c r="J412" s="3"/>
       <c r="K412" s="3"/>
     </row>
-    <row r="413" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
         <v>399</v>
       </c>
@@ -8647,7 +8650,7 @@
       <c r="J413" s="3"/>
       <c r="K413" s="3"/>
     </row>
-    <row r="414" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
         <v>400</v>
       </c>
@@ -8663,7 +8666,7 @@
       <c r="J414" s="3"/>
       <c r="K414" s="3"/>
     </row>
-    <row r="415" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
         <v>401</v>
       </c>
@@ -8679,7 +8682,7 @@
       <c r="J415" s="3"/>
       <c r="K415" s="3"/>
     </row>
-    <row r="416" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
         <v>402</v>
       </c>
@@ -8695,7 +8698,7 @@
       <c r="J416" s="3"/>
       <c r="K416" s="3"/>
     </row>
-    <row r="417" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
         <v>403</v>
       </c>
@@ -8711,7 +8714,7 @@
       <c r="J417" s="3"/>
       <c r="K417" s="3"/>
     </row>
-    <row r="418" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
         <v>404</v>
       </c>
@@ -8727,7 +8730,7 @@
       <c r="J418" s="3"/>
       <c r="K418" s="3"/>
     </row>
-    <row r="419" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
         <v>405</v>
       </c>
@@ -8743,7 +8746,7 @@
       <c r="J419" s="3"/>
       <c r="K419" s="3"/>
     </row>
-    <row r="420" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
         <v>406</v>
       </c>
@@ -8759,7 +8762,7 @@
       <c r="J420" s="3"/>
       <c r="K420" s="3"/>
     </row>
-    <row r="421" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
         <v>407</v>
       </c>
@@ -8775,7 +8778,7 @@
       <c r="J421" s="3"/>
       <c r="K421" s="3"/>
     </row>
-    <row r="422" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
         <v>408</v>
       </c>
@@ -8791,7 +8794,7 @@
       <c r="J422" s="3"/>
       <c r="K422" s="3"/>
     </row>
-    <row r="423" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
         <v>409</v>
       </c>
@@ -8807,7 +8810,7 @@
       <c r="J423" s="3"/>
       <c r="K423" s="3"/>
     </row>
-    <row r="424" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
         <v>410</v>
       </c>
@@ -8823,7 +8826,7 @@
       <c r="J424" s="3"/>
       <c r="K424" s="3"/>
     </row>
-    <row r="425" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
         <v>411</v>
       </c>
@@ -8839,7 +8842,7 @@
       <c r="J425" s="3"/>
       <c r="K425" s="3"/>
     </row>
-    <row r="426" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
         <v>412</v>
       </c>
@@ -8855,7 +8858,7 @@
       <c r="J426" s="3"/>
       <c r="K426" s="3"/>
     </row>
-    <row r="427" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
         <v>413</v>
       </c>
@@ -8871,7 +8874,7 @@
       <c r="J427" s="3"/>
       <c r="K427" s="3"/>
     </row>
-    <row r="428" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
         <v>414</v>
       </c>
@@ -8887,7 +8890,7 @@
       <c r="J428" s="3"/>
       <c r="K428" s="3"/>
     </row>
-    <row r="429" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
         <v>415</v>
       </c>
@@ -8903,7 +8906,7 @@
       <c r="J429" s="3"/>
       <c r="K429" s="3"/>
     </row>
-    <row r="430" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
         <v>416</v>
       </c>
@@ -8919,7 +8922,7 @@
       <c r="J430" s="3"/>
       <c r="K430" s="3"/>
     </row>
-    <row r="431" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
         <v>417</v>
       </c>
@@ -8935,7 +8938,7 @@
       <c r="J431" s="3"/>
       <c r="K431" s="3"/>
     </row>
-    <row r="432" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
         <v>418</v>
       </c>
@@ -8951,7 +8954,7 @@
       <c r="J432" s="3"/>
       <c r="K432" s="3"/>
     </row>
-    <row r="433" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
         <v>419</v>
       </c>
@@ -8967,7 +8970,7 @@
       <c r="J433" s="3"/>
       <c r="K433" s="3"/>
     </row>
-    <row r="434" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
         <v>420</v>
       </c>
@@ -8983,7 +8986,7 @@
       <c r="J434" s="3"/>
       <c r="K434" s="3"/>
     </row>
-    <row r="435" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
         <v>421</v>
       </c>
@@ -8999,7 +9002,7 @@
       <c r="J435" s="3"/>
       <c r="K435" s="3"/>
     </row>
-    <row r="436" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
         <v>422</v>
       </c>
@@ -9015,7 +9018,7 @@
       <c r="J436" s="3"/>
       <c r="K436" s="3"/>
     </row>
-    <row r="437" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
         <v>423</v>
       </c>
@@ -9031,7 +9034,7 @@
       <c r="J437" s="3"/>
       <c r="K437" s="3"/>
     </row>
-    <row r="438" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
         <v>424</v>
       </c>
@@ -9047,7 +9050,7 @@
       <c r="J438" s="3"/>
       <c r="K438" s="3"/>
     </row>
-    <row r="439" spans="1:11" ht="147" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
         <v>425</v>
       </c>
@@ -9063,7 +9066,7 @@
       <c r="J439" s="3"/>
       <c r="K439" s="3"/>
     </row>
-    <row r="440" spans="1:11" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
         <v>426</v>
       </c>
@@ -9079,7 +9082,7 @@
       <c r="J440" s="3"/>
       <c r="K440" s="3"/>
     </row>
-    <row r="441" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
         <v>427</v>
       </c>
@@ -9095,7 +9098,7 @@
       <c r="J441" s="3"/>
       <c r="K441" s="3"/>
     </row>
-    <row r="442" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
         <v>428</v>
       </c>
@@ -9111,7 +9114,7 @@
       <c r="J442" s="3"/>
       <c r="K442" s="3"/>
     </row>
-    <row r="443" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
         <v>429</v>
       </c>
@@ -9127,7 +9130,7 @@
       <c r="J443" s="3"/>
       <c r="K443" s="3"/>
     </row>
-    <row r="444" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
         <v>430</v>
       </c>
@@ -9143,7 +9146,7 @@
       <c r="J444" s="3"/>
       <c r="K444" s="3"/>
     </row>
-    <row r="445" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
         <v>431</v>
       </c>
@@ -9159,7 +9162,7 @@
       <c r="J445" s="3"/>
       <c r="K445" s="3"/>
     </row>
-    <row r="446" spans="1:11" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
         <v>432</v>
       </c>
@@ -9175,7 +9178,7 @@
       <c r="J446" s="3"/>
       <c r="K446" s="3"/>
     </row>
-    <row r="447" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
         <v>433</v>
       </c>
@@ -9191,7 +9194,7 @@
       <c r="J447" s="3"/>
       <c r="K447" s="3"/>
     </row>
-    <row r="448" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
         <v>434</v>
       </c>
@@ -9207,7 +9210,7 @@
       <c r="J448" s="3"/>
       <c r="K448" s="3"/>
     </row>
-    <row r="449" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
         <v>435</v>
       </c>
@@ -9223,7 +9226,7 @@
       <c r="J449" s="3"/>
       <c r="K449" s="3"/>
     </row>
-    <row r="450" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
         <v>436</v>
       </c>
@@ -9239,7 +9242,7 @@
       <c r="J450" s="3"/>
       <c r="K450" s="3"/>
     </row>
-    <row r="451" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
         <v>437</v>
       </c>
@@ -9255,7 +9258,7 @@
       <c r="J451" s="3"/>
       <c r="K451" s="3"/>
     </row>
-    <row r="452" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
         <v>438</v>
       </c>
@@ -9271,7 +9274,7 @@
       <c r="J452" s="3"/>
       <c r="K452" s="3"/>
     </row>
-    <row r="453" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
         <v>439</v>
       </c>
@@ -9287,7 +9290,7 @@
       <c r="J453" s="3"/>
       <c r="K453" s="3"/>
     </row>
-    <row r="454" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
         <v>440</v>
       </c>
@@ -9303,7 +9306,7 @@
       <c r="J454" s="3"/>
       <c r="K454" s="3"/>
     </row>
-    <row r="455" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="2" t="s">
         <v>441</v>
       </c>
@@ -9319,7 +9322,7 @@
       <c r="J455" s="3"/>
       <c r="K455" s="3"/>
     </row>
-    <row r="456" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
         <v>442</v>
       </c>
@@ -9335,7 +9338,7 @@
       <c r="J456" s="3"/>
       <c r="K456" s="3"/>
     </row>
-    <row r="457" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
         <v>443</v>
       </c>
@@ -9351,7 +9354,7 @@
       <c r="J457" s="3"/>
       <c r="K457" s="3"/>
     </row>
-    <row r="458" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
         <v>444</v>
       </c>
@@ -9367,7 +9370,7 @@
       <c r="J458" s="3"/>
       <c r="K458" s="3"/>
     </row>
-    <row r="459" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
         <v>445</v>
       </c>
@@ -9383,7 +9386,7 @@
       <c r="J459" s="3"/>
       <c r="K459" s="3"/>
     </row>
-    <row r="460" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
         <v>446</v>
       </c>
@@ -9399,7 +9402,7 @@
       <c r="J460" s="3"/>
       <c r="K460" s="3"/>
     </row>
-    <row r="461" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
         <v>447</v>
       </c>
@@ -9415,7 +9418,7 @@
       <c r="J461" s="3"/>
       <c r="K461" s="3"/>
     </row>
-    <row r="462" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
         <v>448</v>
       </c>
@@ -9431,7 +9434,7 @@
       <c r="J462" s="3"/>
       <c r="K462" s="3"/>
     </row>
-    <row r="463" spans="1:11" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">
         <v>449</v>
       </c>
@@ -9447,7 +9450,7 @@
       <c r="J463" s="3"/>
       <c r="K463" s="3"/>
     </row>
-    <row r="464" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
         <v>450</v>
       </c>
@@ -9463,7 +9466,7 @@
       <c r="J464" s="3"/>
       <c r="K464" s="3"/>
     </row>
-    <row r="465" spans="1:11" ht="147" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
         <v>451</v>
       </c>
@@ -9479,7 +9482,7 @@
       <c r="J465" s="3"/>
       <c r="K465" s="3"/>
     </row>
-    <row r="466" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
         <v>452</v>
       </c>
@@ -9495,7 +9498,7 @@
       <c r="J466" s="3"/>
       <c r="K466" s="3"/>
     </row>
-    <row r="467" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
         <v>453</v>
       </c>
@@ -9511,7 +9514,7 @@
       <c r="J467" s="3"/>
       <c r="K467" s="3"/>
     </row>
-    <row r="468" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
         <v>454</v>
       </c>
@@ -9527,7 +9530,7 @@
       <c r="J468" s="3"/>
       <c r="K468" s="3"/>
     </row>
-    <row r="469" spans="1:11" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
         <v>455</v>
       </c>
@@ -9543,7 +9546,7 @@
       <c r="J469" s="3"/>
       <c r="K469" s="3"/>
     </row>
-    <row r="470" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
         <v>456</v>
       </c>
@@ -9559,7 +9562,7 @@
       <c r="J470" s="3"/>
       <c r="K470" s="3"/>
     </row>
-    <row r="471" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
         <v>457</v>
       </c>
@@ -9575,7 +9578,7 @@
       <c r="J471" s="3"/>
       <c r="K471" s="3"/>
     </row>
-    <row r="472" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>458</v>
       </c>
@@ -9599,10 +9602,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9612,142 +9615,130 @@
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>469</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>62.7</v>
       </c>
-      <c r="E2">
-        <v>-1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>470</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>64.099999999999994</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>471</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>472</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>473</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>75.8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>474</v>
       </c>
       <c r="B7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>475</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>60.4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>476</v>
       </c>
       <c r="B9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>477</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>65.2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>478</v>
       </c>
       <c r="B11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>479</v>
       </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>480</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55.43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>464</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>77.599999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>481</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>482</v>
       </c>
@@ -9755,7 +9746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>483</v>
       </c>
@@ -9763,11 +9754,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>459</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>64.099999999999994</v>
       </c>
     </row>
@@ -9775,7 +9766,7 @@
       <c r="A19" t="s">
         <v>462</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19">
         <v>75.8</v>
       </c>
     </row>
@@ -9787,19 +9778,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>485</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>64.56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>486</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22">
         <v>88.6</v>
       </c>
     </row>
@@ -9807,7 +9798,7 @@
       <c r="A23" t="s">
         <v>461</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23">
         <v>87.8</v>
       </c>
     </row>
@@ -9815,27 +9806,39 @@
       <c r="A24" t="s">
         <v>487</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>488</v>
       </c>
+      <c r="B25">
+        <v>58.94</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>460</v>
+      </c>
+      <c r="B27">
+        <v>80.5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>490</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28">
         <v>75.8</v>
       </c>
     </row>
@@ -9843,248 +9846,394 @@
       <c r="A29" t="s">
         <v>465</v>
       </c>
+      <c r="B29">
+        <v>73.400000000000006</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>491</v>
       </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>492</v>
       </c>
+      <c r="B31">
+        <v>83.6</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>493</v>
       </c>
+      <c r="B32">
+        <v>95.6</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>494</v>
       </c>
+      <c r="B33">
+        <v>77.599999999999994</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>495</v>
       </c>
+      <c r="B34">
+        <v>89</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>496</v>
       </c>
+      <c r="B35">
+        <v>64</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>497</v>
       </c>
+      <c r="B36">
+        <v>74.400000000000006</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>498</v>
       </c>
+      <c r="B37">
+        <v>71.5</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>499</v>
       </c>
+      <c r="B38">
+        <v>57.54</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>500</v>
       </c>
+      <c r="B39">
+        <v>60.29</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>501</v>
       </c>
+      <c r="B40">
+        <v>68.06</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>502</v>
       </c>
+      <c r="B41">
+        <v>69.400000000000006</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>503</v>
       </c>
+      <c r="B42">
+        <v>81.5</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>504</v>
       </c>
+      <c r="B43">
+        <v>88.1</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>505</v>
       </c>
+      <c r="B44">
+        <v>71.599999999999994</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>506</v>
       </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>508</v>
+      </c>
+      <c r="B47">
+        <v>57.8</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>509</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48">
         <v>83.4</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>512</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51">
         <v>64.099999999999994</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>65</v>
+      </c>
+      <c r="C52" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>516</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55">
         <v>88.6</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>80.11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>54.5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>70.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>67.5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>535</v>
       </c>
+      <c r="B75">
+        <v>76.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/uni.xlsx
+++ b/data/uni.xlsx
@@ -9604,8 +9604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9667,9 +9667,6 @@
       <c r="A7" t="s">
         <v>474</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -9683,9 +9680,6 @@
       <c r="A9" t="s">
         <v>476</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -9699,9 +9693,6 @@
       <c r="A11" t="s">
         <v>478</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -9742,17 +9733,11 @@
       <c r="A16" t="s">
         <v>482</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>483</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -9774,9 +9759,6 @@
       <c r="A20" t="s">
         <v>484</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -9806,9 +9788,6 @@
       <c r="A24" t="s">
         <v>487</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -9854,9 +9833,6 @@
       <c r="A30" t="s">
         <v>491</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -9974,17 +9950,11 @@
       <c r="A45" t="s">
         <v>506</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>507</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -10006,9 +9976,6 @@
       <c r="A49" t="s">
         <v>510</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
@@ -10042,9 +10009,6 @@
       <c r="A53" t="s">
         <v>514</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -10066,9 +10030,6 @@
       <c r="A56" t="s">
         <v>517</v>
       </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -10098,9 +10059,6 @@
       <c r="A60" t="s">
         <v>520</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
       <c r="C60" t="s">
         <v>536</v>
       </c>
@@ -10203,9 +10161,6 @@
       <c r="A72" t="s">
         <v>532</v>
       </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -10218,9 +10173,6 @@
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>534</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
